--- a/hasil uji/nilaiF_MIN.xlsx
+++ b/hasil uji/nilaiF_MIN.xlsx
@@ -466,60 +466,59 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[0 0 1 0 0 0 1 0 0 0 1 1 1 1 0 1 0 0 1 1 0 1 0 1 0 0 1 1 1 1 0 0 0 1 0 0 1
- 0 0 0 1 0 1 1 1 0 1 0 1 0 0 0 1 1 0 0 0 0 1 1 1 1 0 0 0 1 0 1 0 0 0 0 0 1
- 0 0 0 0 1 1 0 0 1 0 1 1 1 1 0 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 1 1 1 0 1 1 1
- 1 0 1 0 0 0 1 1 0 1 0 0 0 0 0 1 1 1 0 0 1 1 0 1 0 0 0 1 1 1 0 1 1 0 1 1 1
- 1 1 1 1 1 1 0 1 1 0 0 1 1 1 0 0 1 1 1 1 1 0 1 0 0 0 1 1 0 1 0 1 1 0 0 0 1
- 1 1 1 0 0 1 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 1 1 1 1 1 1 0
- 0 1 1 1 0 1 1 1 1 1 0 1 0 1 0 0 0 1 0 0 1 0 0 1 1 0 1 1 1 0 0 0 1 1 0 1 1
- 1 0 1 1 0 0 1 0 1 0 1 1 1 1 0 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 1 1 0 1 0 1 1
- 1 1 1 1 1 0 1 1 1 0 0 1 1 0 0 0 1 0 0 0 1 1 0 1 1 1 1 0 1 0 1 1 1 0 0 1 1
- 1 0 1 0 1 0 0 0 1 0 1 1 0 1 1 0 0 1 1 1 0 1 1 1 0 1 0 0 0 1 0 1 0 1 1 1 0
- 0 1 0 1 0 1 1 0 1 0 0 1 0 1 0 1 1 1 0 0 0 0 1 0 1 1 0 1 0 1 0 1 1 1 0 1 1
- 1 1 1 0 1 1 0 0 0 1 1 1 1 1 0 1 1 0 1 1 1 0 0 1 1 1 0 0 1 1 0 0 1 0 1 1 1
- 1 0 0 0 1 1 1 1 1 0 1 0 1 0 0 0 1 1 0 1 1 0 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1
- 0 1 0 0 1 0 0 1 0 0 1 0 0 1 0 1 1 1 0 1 1 1 0 0 1 1 0 0 0 1 1 1 1 0 1 0 1
- 1 0 1 1 0 1 0 1 0 1 0 0 0 0 0 1 1 1 0 0 1 1 0 0 1 1 0 1 0 0 1 1 0 0 1 1 1
- 1 1 0 1 0 1 0 1 1 1 0 1 0 0 1 1 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 1 1 1 0
- 0 1 0 1 1 0 0 0 1 1 1 1 0 0 0 0 0 0 1 1 1 1 0 0 0 1 1 0 1 1 0 1 1 1 0 0 0
- 1 0 1 1 1 0 0 1 0 1 0 1 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 1
- 1 1 0 1 0 0 0 1 0 0 1 1 1 0 0 0 0 1 0 0 1 0 0 0 1 0 1 1 0 1 1 1 0 1 0 0 0
- 0 1 1 1 0 0 0 1 0 0 0 0 1 1 0 1 0 1 1 1 1 1 1 1 0 0 1 0 1 1 0 0 0 1 0 0 1
- 1 1 0 0 0 0 1 0 1 0 1 0 0]</t>
+          <t>[0 1 1 1 1 0 0 1 1 0 0 1 1 0 1 0 0 0 1 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 1 0 1
+ 0 0 1 0 0 0 0 0 1 1 1 1 0 1 1 1 0 0 0 1 0 0 0 1 1 1 0 1 0 1 0 0 0 0 1 1 1
+ 0 0 0 1 1 0 0 1 1 1 1 0 1 1 0 0 1 1 0 1 1 0 0 1 1 0 0 1 1 0 0 0 1 1 1 1 0
+ 0 1 1 1 0 0 0 0 1 1 1 0 1 0 1 1 1 0 0 0 1 1 1 1 0 1 1 0 1 0 0 1 0 1 0 0 1
+ 1 0 1 1 0 0 0 0 1 0 1 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 1 1 0 0 1 1 0 0 0
+ 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 1 1 0 1 0 0 0 0 0 1 1 0 1 1 0
+ 1 0 1 0 1 0 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 1 1 0 0 1 1 1
+ 1 0 1 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 1 0 1 0 0 0 1 1 1 0 0 0 1 0 1 1 0
+ 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 1 1 1 1 0 1 0 0 1 1 0 0 0 1 1
+ 1 0 0 1 1 1 1 0 1 1 1 1 1 0 1 0 1 0 1 0 0 0 0 1 0 1 1 0 1 0 0 1 0 0 0 0 0
+ 1 0 1 1 1 0 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 1 1 1 0 0 0 0 1 0 1 0 1 1 0 0 0
+ 0 1 1 0 1 1 0 1 1 1 1 1 1 1 1 0 1 0 1 0 1 1 0 1 0 0 0 1 1 1 0 0 0 1 1 0 0
+ 1 0 1 0 1 0 1 0 1 1 1 0 1 1 0 0 1 1 1 1 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1 1 1
+ 1 0 0 1 0 1 1 1 0 1 1 1 0 1 1 1 1 0 1 0 1 0 0 1 0 1 0 0 0 1 1 0 0 1 1 1 1
+ 1 0 0 1 1 1 0 1 1 1 1 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 1 0
+ 1 1 0 0 1 1 0 0 1 1 0 0 1 1 0 1 1 1 0 1 0 1 0 1 0 0 1 1 0 0 0 0 1 1 1 0 1
+ 0 1 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 1 1 0 1 0 1 1 0 0 0 1 1 0
+ 0 0 0 0 0 0 0 1 1 1 0 0 1 1 1 0 1 0 1 1 0 1 1 0 0 0 0 1 0 0 1 1 1 1 0 0 1
+ 1 1 0 0 1 1 1 0 0 1 0 1 0 1 0 1 0 1 0 0 0 1 1 1 1 1 0 0 0 1 0 1 0 0 0 1 0
+ 1 1 0 0 0 0 0 0 0 1 1 1 0 0 1 1 1 0 1 1 1 1 0 0 0 1 0 1 1 0 1 0 1 1 1 1 1
+ 1 0 0 0 1 1 0 1 0 0 1 0 0]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[  2   6  10  11  12  13  15  18  19  21  23  26  27  28  29  33  36  40
-  42  43  44  46  48  52  53  58  59  60  61  65  67  73  78  79  82  84
-  85  86  87  93  95  97  98  99 104 105 106 108 109 110 111 113 117 118
- 120 126 127 128 131 132 134 138 139 140 142 143 145 146 147 148 149 150
- 151 152 153 155 156 159 160 161 164 165 166 167 168 170 174 175 177 179
- 180 184 185 186 187 190 191 192 194 198 199 206 209 211 213 215 216 217
- 218 219 220 223 224 225 227 228 229 230 231 233 235 239 242 245 246 248
- 249 250 254 255 257 258 259 261 262 265 267 269 270 271 272 277 278 280
- 283 284 289 290 292 294 295 296 297 298 299 300 302 303 304 307 308 312
- 316 317 319 320 321 322 324 326 327 328 331 332 333 335 337 341 343 344
- 346 347 350 351 352 354 355 356 358 362 364 366 367 368 371 373 375 376
- 378 381 383 385 386 387 392 394 395 397 399 401 402 403 405 406 407 408
- 409 411 412 416 417 418 419 420 422 423 425 426 427 430 431 432 435 436
- 439 441 442 443 444 448 449 450 451 452 454 456 460 461 463 464 466 467
- 468 469 470 471 473 475 476 477 478 479 480 482 485 488 491 494 496 497
- 498 500 501 502 505 506 510 511 512 513 515 517 518 520 521 523 525 527
- 533 534 535 538 539 542 543 545 548 549 552 553 554 555 556 558 560 562
- 563 564 566 569 570 577 578 579 580 587 588 589 590 593 595 596 600 601
- 602 603 610 611 612 613 617 618 620 621 623 624 625 629 631 632 633 636
- 638 640 641 642 643 644 648 656 660 662 664 665 666 667 669 673 676 677
- 678 683 686 690 692 693 695 696 697 699 704 705 706 710 715 716 718 720
- 721 722 723 724 725 726 729 731 732 736 739 740 741 746 748 750]</t>
+          <t>[  1   2   3   4   7   8  11  12  14  18  21  23  25  26  28  34  36  39
+  45  46  47  48  50  51  52  56  60  61  62  64  66  71  72  73  77  78
+  81  82  83  84  86  87  90  91  93  94  97  98 101 102 106 107 108 109
+ 112 113 114 119 120 121 123 125 126 127 131 132 133 134 136 137 139 142
+ 144 147 148 150 151 156 158 160 162 164 167 171 172 176 177 180 181 188
+ 189 190 196 201 202 203 207 208 210 216 217 219 220 222 224 226 229 230
+ 231 233 236 246 248 250 251 252 253 256 257 258 259 261 263 264 266 267
+ 268 269 271 272 274 275 278 279 281 285 286 287 291 293 294 296 298 300
+ 301 307 311 316 317 318 319 320 321 323 326 327 331 332 333 336 337 338
+ 339 341 342 343 344 345 347 349 351 356 358 359 361 364 370 372 373 374
+ 376 381 384 386 388 391 392 393 398 400 402 403 408 409 411 412 414 415
+ 416 417 418 419 420 421 423 425 427 428 430 434 435 436 440 441 444 446
+ 448 450 452 453 454 456 457 460 461 462 463 466 469 472 476 478 479 480
+ 481 484 486 487 488 490 491 492 494 495 496 497 499 501 504 506 510 511
+ 514 515 516 517 518 521 522 523 525 526 527 528 531 533 534 536 544 545
+ 550 552 553 555 556 559 560 563 564 567 568 570 571 572 574 576 578 581
+ 582 587 588 589 591 593 597 600 603 604 605 610 611 616 617 619 621 622
+ 626 627 636 637 638 641 642 643 645 647 648 650 651 656 659 660 661 662
+ 665 666 667 670 671 672 675 677 679 681 683 687 688 689 690 691 695 697
+ 701 703 704 712 713 714 717 718 719 721 722 723 724 728 730 731 733 735
+ 736 737 738 739 740 744 745 747 750]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="E2" t="n">
-        <v>20.33135485649109</v>
+        <v>25.21726584434509</v>
       </c>
     </row>
     <row r="3">
@@ -528,59 +527,60 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[1 1 0 1 1 1 1 1 1 1 0 1 0 0 0 0 1 0 1 1 0 1 0 0 1 0 1 0 1 0 1 0 1 0 0 1 1
- 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 1 1 1 0 0 0 0
- 0 0 0 1 0 0 1 0 1 1 0 1 0 0 1 0 0 0 1 1 0 0 1 0 0 1 1 1 1 1 1 1 0 0 0 1 1
- 0 0 0 0 1 1 1 1 0 0 1 0 1 0 1 0 1 1 1 1 0 0 0 1 1 1 0 0 0 0 0 0 1 1 1 0 1
- 1 0 1 1 0 1 0 0 1 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 1 0 1 0 1 1 1 0 1 0 1
- 0 0 1 1 0 1 1 1 0 1 1 1 0 0 0 1 0 1 1 0 1 1 1 1 0 1 0 1 0 0 1 0 0 0 0 0 0
- 0 0 0 1 1 0 1 0 0 1 1 1 0 0 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1
- 0 1 1 0 1 1 1 1 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 1 1 1 1 1 0 0 0
- 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 1 1 1 0 1 1 1 0 1 1 0 1 0 0 0 1 1 0 1
- 0 0 1 1 1 0 1 0 1 0 0 0 1 1 0 1 1 1 1 0 1 1 1 0 1 1 0 0 1 0 0 1 0 0 0 1 0
- 0 0 0 0 1 1 1 1 1 1 1 0 0 1 0 1 0 1 0 1 0 1 1 0 1 0 0 1 0 1 1 0 1 1 0 1 0
- 1 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 1 1 0 1 0 1 0 1 0 0 1 0 1 0 0 0 1
- 0 1 0 1 0 1 1 1 1 0 1 1 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1
- 1 1 0 0 0 0 1 0 0 1 1 0 1 1 0 1 1 0 1 0 1 1 1 0 1 1 1 0 0 0 1 0 0 1 0 1 0
- 1 1 1 1 1 0 0 1 1 0 1 1 0 1 1 1 0 1 1 0 0 1 1 0 0 0 1 0 0 1 0 0 1 1 1 0 1
- 1 0 1 0 1 0 0 0 1 1 0 1 0 1 0 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0
- 0 1 1 1 1 1 0 1 0 0 0 1 1 0 0 0 0 1 1 1 1 0 0 1 1 1 0 1 0 0 1 1 1 1 1 0 1
- 0 0 0 1 0 0 1 0 1 0 0 1 0 1 1 0 1 1 0 0 1 1 0 1 0 1 0 0 0 0 1 1 1 1 1 1 1
- 0 1 0 0 0 1 0 1 1 1 1 0 1 0 0 0 0 0 1 1 1 0 0 0 1 1 1 0 0 1 1 1 1 0 0 1 0
- 0 0 0 0 0 1 1 1 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 1 0 1 1 1 0
- 0 0 0 0 1 1 0 0 1 1 0 0 0]</t>
+          <t>[1 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 1 1 1 1 0 1 1 1 1 1 0 1 1 0 0 0 1
+ 1 1 1 1 0 0 1 0 1 1 1 1 0 1 0 0 1 0 0 1 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 1 1
+ 1 1 0 0 1 1 0 0 0 1 1 0 1 0 0 1 1 1 1 1 1 0 1 1 0 0 0 1 0 0 1 0 1 0 1 1 0
+ 0 0 1 1 1 0 1 0 1 1 1 0 0 1 1 0 1 0 1 1 1 1 1 0 0 1 1 0 0 1 1 1 1 1 1 0 1
+ 0 0 0 1 0 0 1 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 0 1 1 1 0 1 0 0 1 1 0 0
+ 0 0 1 1 1 1 1 0 0 1 0 1 1 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 1 0 1 1 1 0 0 1 1
+ 0 0 0 0 1 0 1 1 1 0 1 1 1 1 0 1 1 1 1 1 0 0 1 1 0 0 0 0 1 1 1 1 0 0 1 1 0
+ 1 0 0 1 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 1 1 1 1 0
+ 0 1 1 1 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 1 0 0 1 1 1 1 0 0 0 0 1
+ 1 0 1 0 1 0 0 0 1 1 0 1 1 1 1 1 1 1 0 0 0 1 1 0 1 1 0 1 0 0 1 1 0 0 1 0 1
+ 1 0 0 1 0 1 0 1 0 0 0 1 1 1 1 0 1 0 1 1 1 1 1 0 1 1 0 0 1 0 0 1 0 1 0 0 1
+ 0 1 0 0 0 0 0 0 1 1 1 1 0 1 1 1 1 1 1 1 0 1 0 1 0 1 1 0 0 1 1 1 0 1 0 0 1
+ 0 1 1 1 0 1 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 0 0 1 1 1 0 0 1 0 0 1 0 1
+ 1 1 0 1 1 1 0 0 1 1 0 0 1 1 1 0 0 0 1 1 0 1 1 1 0 0 1 1 0 1 1 1 0 1 1 1 1
+ 0 1 1 1 1 0 1 1 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 1 0 1 1 0 0 1 1
+ 0 0 1 0 1 0 1 1 1 0 1 1 1 0 0 1 1 1 1 0 1 1 1 1 1 0 0 0 0 1 0 1 1 1 0 0 1
+ 0 1 1 0 0 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 1 0 1 0 0
+ 0 1 0 1 1 1 0 0 1 1 0 0 1 0 0 1 1 0 1 1 1 1 1 0 0 1 0 1 1 1 0 1 0 1 0 0 0
+ 1 0 0 0 1 0 0 1 1 0 0 1 1 0 1 0 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 0 0 1 1 0 1
+ 1 0 0 1 1 1 1 1 0 0 0 1 1 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
+ 0 0 1 1 1 1 0 1 0 1 0 1 0]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[  0   1   3   4   5   6   7   8   9  11  16  18  19  21  24  26  28  30
-  32  35  36  45  47  50  56  58  59  62  65  67  68  69  77  80  82  83
-  85  88  92  93  96  99 100 101 102 103 104 105 109 110 115 116 117 118
- 121 123 125 127 128 129 130 134 135 136 143 144 145 147 148 150 151 153
- 156 158 159 163 165 168 172 174 176 178 179 180 182 184 187 188 190 191
- 192 194 195 196 200 202 203 205 206 207 208 210 212 215 225 226 228 231
- 232 233 237 238 239 240 241 242 243 244 248 250 252 258 260 261 263 264
- 265 266 268 269 273 276 280 282 287 288 289 290 291 292 298 304 307 308
- 311 314 315 316 318 319 320 322 323 325 329 330 332 335 336 337 339 341
- 345 346 348 349 350 351 353 354 355 357 358 361 364 368 374 375 376 377
- 378 379 380 383 385 387 389 391 392 394 397 399 400 402 403 405 407 409
- 415 416 420 421 425 426 427 428 430 432 434 437 439 443 445 447 449 450
- 451 452 454 455 456 457 462 467 472 474 478 480 481 482 487 490 491 493
- 494 496 497 499 501 502 503 505 506 507 511 514 516 518 519 520 521 522
- 525 526 528 529 531 532 533 535 536 539 540 544 547 550 551 552 554 555
- 557 559 563 564 566 568 574 575 576 577 582 587 589 593 594 595 596 597
- 599 603 604 609 610 611 612 615 616 617 619 622 623 624 625 626 628 632
- 635 637 640 642 643 645 646 649 650 652 654 659 660 661 662 663 664 665
- 667 671 673 674 675 676 678 684 685 686 690 691 692 695 696 697 698 701
- 708 709 710 711 713 716 718 721 727 730 731 733 734 736 737 738 744 745
- 748 749]</t>
+          <t>[  0   1   3   4   6   9  16  19  20  21  22  23  25  26  27  28  29  31
+  32  36  37  38  39  40  43  45  46  47  48  50  53  56  57  61  62  65
+  66  72  73  74  75  78  79  83  84  86  89  90  91  92  93  94  96  97
+ 101 104 106 108 109 113 114 115 117 119 120 121 124 125 127 129 130 131
+ 132 133 136 137 140 141 142 143 144 145 147 151 154 155 156 157 160 165
+ 170 171 172 174 175 176 178 181 182 187 188 189 190 191 194 196 197 199
+ 201 203 208 209 213 215 216 217 220 221 226 228 229 230 232 233 234 235
+ 237 238 239 240 241 244 245 250 251 252 253 256 257 259 262 263 268 269
+ 271 274 281 283 287 290 291 292 293 294 297 298 299 301 303 305 308 312
+ 313 315 319 321 324 325 326 327 332 333 335 337 341 342 344 345 346 347
+ 348 349 350 354 355 357 358 360 363 364 367 369 370 373 375 377 381 382
+ 383 384 386 388 389 390 391 392 394 395 398 401 403 406 408 415 416 417
+ 418 420 421 422 423 424 425 426 428 430 432 433 436 437 438 440 443 445
+ 446 447 449 452 457 460 461 462 466 470 471 472 475 478 480 481 482 484
+ 485 486 489 490 493 494 495 499 500 502 503 504 507 508 510 511 512 514
+ 515 516 517 519 520 521 522 524 525 528 530 531 538 539 543 545 547 549
+ 550 553 554 557 559 561 562 563 565 566 567 570 571 572 573 575 576 577
+ 578 579 584 586 587 588 591 593 594 598 603 605 606 608 616 617 619 620
+ 621 624 626 630 632 633 634 637 638 641 644 645 647 648 649 650 651 654
+ 656 657 658 660 662 666 670 673 674 677 678 680 682 683 685 686 687 688
+ 690 691 692 693 694 695 696 699 700 702 703 706 707 708 709 710 714 715
+ 718 720 721 722 733 736 742 743 744 745 747 749 751]</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0.9605263157894737</v>
       </c>
       <c r="E3" t="n">
-        <v>19.84854888916016</v>
+        <v>26.55806183815002</v>
       </c>
     </row>
     <row r="4">
@@ -589,64 +589,59 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[1 0 1 0 1 0 1 1 0 0 0 0 1 1 0 1 0 0 1 1 1 1 1 1 1 1 0 1 1 1 0 0 1 0 0 0 1
- 0 1 0 1 0 1 1 1 1 1 0 1 1 1 1 0 0 1 1 1 0 0 0 0 1 1 1 0 0 1 1 1 1 1 1 1 1
- 1 1 1 0 1 0 1 0 1 0 1 0 1 1 1 1 0 1 0 1 1 1 1 0 1 1 0 0 1 0 0 1 1 1 0 0 1
- 1 1 0 0 1 0 0 0 1 1 1 1 1 1 1 1 1 0 1 0 1 1 0 0 0 1 1 1 1 1 1 0 1 1 0 1 1
- 0 1 1 0 0 0 0 0 1 0 1 1 1 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1 0 1 0 1 1 1 1 0 0
- 0 0 1 1 1 1 0 0 1 1 0 0 1 1 0 0 1 1 1 1 1 1 1 1 0 0 0 0 0 0 0 1 0 1 1 1 0
- 0 0 1 1 1 1 1 1 0 0 1 0 1 1 1 1 0 1 1 0 1 1 0 1 0 0 1 0 1 0 0 1 1 1 1 1 1
- 0 1 0 1 1 1 1 0 1 1 1 1 1 1 1 0 0 1 1 1 0 0 0 0 0 1 1 1 1 1 0 1 1 0 0 1 0
- 1 1 0 0 0 1 1 1 1 0 1 1 1 0 1 0 0 0 1 1 0 1 0 0 0 1 1 0 0 1 1 0 1 1 1 1 0
- 0 1 1 0 0 0 0 0 0 0 0 0 1 1 1 1 0 1 1 1 1 1 0 1 1 0 0 1 0 1 0 1 1 0 0 1 1
- 0 0 1 1 1 1 1 1 1 0 1 0 1 1 1 1 0 0 0 1 0 0 1 0 1 1 0 1 0 0 1 1 1 1 1 1 0
- 1 1 0 1 1 1 1 1 1 1 0 1 0 0 0 1 1 1 1 0 1 0 1 1 1 1 0 0 1 1 1 0 0 1 1 0 1
- 1 1 1 0 0 1 1 0 1 0 0 1 1 1 1 1 1 0 1 0 0 0 1 1 0 1 0 1 0 1 0 1 0 1 1 0 1
- 1 0 0 0 0 0 0 1 0 0 1 1 0 1 1 1 1 1 1 0 1 1 1 1 0 1 1 0 0 1 0 0 1 0 0 0 1
- 1 0 1 0 0 1 1 1 1 0 1 0 1 0 1 1 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 1
- 1 0 1 0 1 1 1 0 1 0 1 1 0 1 1 1 0 0 0 1 1 0 1 0 1 1 1 1 1 1 0 0 1 1 0 1 0
- 1 0 1 0 1 0 1 1 1 0 1 0 1 0 0 1 1 0 1 0 1 1 0 1 0 0 1 1 1 0 1 1 1 0 1 1 0
- 0 1 0 1 0 0 0 1 1 1 1 0 1 0 1 1 0 0 1 1 0 1 1 0 1 1 1 1 1 1 1 0 1 1 1 1 1
- 1 1 0 1 0 1 0 0 1 1 0 1 1 0 0 1 1 0 1 0 1 0 1 1 1 1 1 1 1 0 1 1 0 1 1 1 1
- 1 1 1 1 0 0 1 0 1 0 1 1 0 1 1 1 1 0 1 1 1 0 1 0 0 0 1 0 1 0 0 0 1 1 1 0 1
- 1 1 1 1 0 1 1 1 0 0 1 0 1]</t>
+          <t>[0 1 1 1 0 1 1 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 0 0 1 0 1 0 1
+ 1 0 0 0 0 1 1 0 1 1 0 1 1 0 1 0 1 1 0 0 0 1 1 1 1 0 0 1 1 1 1 0 0 0 0 1 0
+ 1 1 1 1 0 0 1 0 0 0 1 1 0 0 1 1 1 0 0 1 1 0 1 1 0 1 1 1 1 0 0 0 1 1 1 1 1
+ 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 0
+ 1 1 1 0 1 1 1 0 0 0 1 1 1 0 1 0 0 0 1 1 0 0 1 1 0 0 1 1 0 0 1 0 0 1 0 0 0
+ 0 1 0 0 0 0 1 1 1 1 1 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0
+ 1 1 1 0 1 1 0 1 1 0 0 0 0 1 1 0 0 0 1 0 1 0 1 0 1 0 1 1 1 1 1 1 1 0 1 0 0
+ 0 1 0 1 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 1 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1 0 1
+ 0 1 0 1 1 1 0 0 1 0 1 0 1 0 0 1 1 1 0 0 1 0 0 1 0 1 1 1 0 0 0 1 0 0 1 0 0
+ 1 1 0 1 1 0 0 0 0 1 1 0 0 1 0 1 0 1 1 0 1 0 1 1 0 1 1 1 1 1 1 1 1 1 0 1 1
+ 1 0 0 0 1 1 0 0 0 0 1 1 1 1 0 1 0 0 1 0 1 1 0 0 1 1 1 1 0 1 0 0 1 1 1 0 0
+ 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 1 1 1 1 0 0 1 0 0 0 1 1 0 0 1 1 1 0 1 0
+ 0 1 1 0 1 0 0 0 1 1 0 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 1 1 1 0 0 0 0 1 1 1 0
+ 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 1 0 1 0 1 1 0 1 0 0 1
+ 0 0 1 1 1 0 0 0 1 0 1 1 0 0 1 0 0 0 1 1 0 1 1 1 1 1 0 0 1 1 0 0 0 0 0 1 1
+ 1 0 0 1 0 1 0 1 1 1 0 0 1 1 0 1 0 1 0 0 0 0 0 1 1 1 0 1 1 0 1 1 1 1 0 1 1
+ 1 1 1 1 1 1 0 0 1 1 1 1 1 0 0 0 1 0 1 0 1 1 1 1 1 1 1 1 1 0 0 0 1 0 0 0 0
+ 0 1 1 1 1 0 0 0 1 0 1 0 0 0 0 0 1 1 1 1 0 1 1 1 0 1 0 0 1 0 0 0 1 0 1 0 1
+ 0 1 0 1 1 1 0 0 1 1 0 0 1 0 1 1 0 0 1 1 1 1 1 0 0 0 1 1 0 0 1 1 0 0 0 0 1
+ 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 1 1 0 1 1 1 0 1 0 1 0 1 0 1 0 1 0
+ 1 0 1 0 1 1 0 0 1 1 0 0 0]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[  0   2   4   6   7  12  13  15  18  19  20  21  22  23  24  25  27  28
-  29  32  36  38  40  42  43  44  45  46  48  49  50  51  54  55  56  61
-  62  63  66  67  68  69  70  71  72  73  74  75  76  78  80  82  84  86
-  87  88  89  91  93  94  95  96  98  99 102 105 106 107 110 111 112 115
- 119 120 121 122 123 124 125 126 127 129 131 132 136 137 138 139 140 141
- 143 144 146 147 149 150 156 158 159 160 162 164 165 166 167 168 169 170
- 171 172 173 174 175 177 179 180 181 182 187 188 189 190 193 194 197 198
- 201 202 203 204 205 206 207 208 216 218 219 220 224 225 226 227 228 229
- 232 234 235 236 237 239 240 242 243 245 248 250 253 254 255 256 257 258
- 260 262 263 264 265 267 268 269 270 271 272 273 276 277 278 284 285 286
- 287 288 290 291 294 296 297 301 302 303 304 306 307 308 310 314 315 317
- 321 322 325 326 328 329 330 331 334 335 345 346 347 348 350 351 352 353
- 354 356 357 360 362 364 365 368 369 372 373 374 375 376 377 378 380 382
- 383 384 385 389 392 394 395 397 400 401 402 403 404 405 407 408 410 411
- 412 413 414 415 416 418 422 423 424 425 427 429 430 431 432 435 436 437
- 440 441 443 444 445 446 449 450 452 455 456 457 458 459 460 462 466 467
- 469 471 473 475 477 478 480 481 488 491 492 494 495 496 497 498 499 501
- 502 503 504 506 507 510 513 517 518 520 523 524 525 526 528 530 532 533
- 534 539 540 544 546 549 554 555 557 559 560 561 563 565 566 568 569 570
- 574 575 577 579 580 581 582 583 584 587 588 590 592 594 596 598 599 600
- 602 604 607 608 610 612 613 615 618 619 620 622 623 624 626 627 630 632
- 636 637 638 639 641 643 644 647 648 650 651 653 654 655 656 657 658 659
- 661 662 663 664 665 666 667 669 671 674 675 677 678 681 682 684 686 688
- 689 690 691 692 693 694 696 697 699 700 701 702 703 704 705 706 709 711
- 713 714 716 717 718 719 721 722 723 725 729 731 735 736 737 739 740 741
- 742 743 745 746 747 750 752]</t>
+          <t>[  1   2   3   5   6   8   9  14  17  21  25  26  27  32  34  36  37  42
+  43  45  46  48  49  51  53  54  58  59  60  61  64  65  66  67  72  74
+  75  76  77  80  84  85  88  89  90  93  94  96  97  99 100 101 102 106
+ 107 108 109 110 111 112 117 123 126 134 136 138 140 144 148 149 150 152
+ 153 154 158 159 160 162 166 167 170 171 174 175 178 181 186 191 192 193
+ 194 195 197 199 201 204 205 211 217 220 222 223 224 226 227 229 230 235
+ 236 240 242 244 246 248 249 250 251 252 253 254 256 260 262 264 266 270
+ 273 274 278 279 280 281 282 283 285 286 287 288 290 291 292 293 295 297
+ 299 300 301 304 306 308 311 312 313 316 319 321 322 323 327 330 333 334
+ 336 337 342 343 346 348 350 351 353 355 356 358 359 360 361 362 363 364
+ 365 366 368 369 370 374 375 380 381 382 383 385 388 390 391 394 395 396
+ 397 399 402 403 404 409 415 416 419 423 424 425 426 427 430 434 435 438
+ 439 440 442 445 446 448 452 453 455 456 458 462 463 468 470 471 472 477
+ 478 479 488 489 490 491 496 498 499 505 506 507 509 511 512 514 517 520
+ 521 522 526 528 529 532 536 537 539 540 541 542 543 546 547 553 554 555
+ 558 560 562 563 564 567 568 570 572 578 579 580 582 583 585 586 587 588
+ 590 591 592 593 594 595 596 597 600 601 602 603 604 608 610 612 613 614
+ 615 616 617 618 619 620 624 630 631 632 633 637 639 645 646 647 648 650
+ 651 652 654 657 661 663 665 667 669 670 671 674 675 678 680 681 684 685
+ 686 687 688 692 693 696 697 702 711 712 714 715 719 723 724 726 727 728
+ 730 732 734 736 738 740 742 744 745 748 749]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="E4" t="n">
-        <v>20.81833815574646</v>
+        <v>25.9417188167572</v>
       </c>
     </row>
     <row r="5">
@@ -655,64 +650,59 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[1 1 1 0 0 1 0 0 1 1 0 1 0 0 1 1 1 1 0 1 0 0 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1
- 1 1 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 1 1 0 0 0 1 0 1 0 0 0 1 1 0 1 1 0 1 0
- 0 1 1 0 0 0 1 0 0 1 0 1 0 0 1 1 0 0 0 1 1 1 0 1 0 0 1 1 0 1 1 1 1 0 0 1 1
- 1 0 1 1 1 1 0 1 0 0 1 1 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 0 0 1 1 0
- 0 1 1 1 0 1 1 0 1 1 1 1 1 1 1 1 1 1 0 1 0 0 1 1 1 1 1 1 0 1 0 0 0 1 1 1 0
- 0 1 0 1 1 1 0 0 1 0 0 1 1 1 1 1 1 0 1 0 1 1 0 0 0 1 1 0 0 1 1 1 0 1 1 0 1
- 1 0 1 1 1 0 1 1 0 1 0 0 1 1 0 1 0 1 0 1 1 1 0 1 0 1 1 0 0 0 1 0 1 1 0 1 1
- 1 0 1 1 0 1 0 0 1 0 0 1 0 1 1 1 1 1 1 0 1 1 0 0 1 1 1 0 0 1 1 1 1 1 1 0 1
- 1 1 0 1 1 0 1 0 1 0 1 1 1 0 0 1 1 1 1 1 0 1 1 1 1 0 0 1 0 1 1 1 0 0 1 1 0
- 0 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 0 1 1 1 1 1 1 1 0 0 0 0 1 1 0 1 1 1 0 1 1
- 1 1 1 1 1 0 0 0 0 1 0 1 1 1 1 1 1 0 1 1 0 0 0 0 1 0 0 0 1 1 0 1 1 1 1 0 1
- 1 1 1 1 1 1 1 1 1 0 1 0 1 1 1 0 0 1 1 1 1 1 0 1 1 1 1 1 0 0 1 1 1 1 1 1 0
- 0 1 1 0 0 1 0 0 0 0 1 0 0 1 1 1 1 1 1 1 0 1 1 0 1 1 0 0 1 1 0 1 0 0 1 1 1
- 1 1 1 1 1 1 0 0 1 1 1 1 1 0 1 0 0 1 1 1 1 0 1 1 1 0 0 1 1 1 0 1 1 0 0 1 0
- 0 0 1 0 1 1 1 1 1 1 0 1 1 1 1 1 0 1 0 1 1 0 1 1 1 0 0 0 1 0 1 0 1 0 1 0 0
- 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 1 1 1 1 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1
- 1 0 0 0 0 1 1 0 1 1 1 0 1 0 0 1 0 1 1 1 1 1 1 0 1 1 1 0 1 1 1 0 0 0 1 1 0
- 0 0 1 1 0 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 1 1 0 1 1 1 1 0 0 0 0 1 0 1 1 1 1
- 0 0 1 0 0 1 1 1 1 1 0 0 0 0 1 0 0 1 1 1 1 0 1 1 1 1 0 1 0 1 0 1 0 0 0 1 1
- 0 1 0 1 1 0 1 0 0 0 1 0 1 1 0 1 1 0 1 1 1 0 0 1 0 0 0 1 0 0 1 1 1 1 1 1 0
- 0 0 0 0 0 0 0 1 1 0 1 0 0]</t>
+          <t>[1 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 0 1 1 0 1 0 0 0 0 1 1 0
+ 0 0 1 0 0 1 1 1 0 1 1 0 1 1 1 1 0 1 0 1 0 0 1 0 1 1 0 0 0 1 0 1 1 1 1 1 1
+ 1 0 0 1 1 0 1 1 0 1 1 0 1 1 0 0 1 0 0 0 1 1 1 1 1 1 0 1 0 0 0 1 1 0 0 0 1
+ 1 0 1 0 1 1 0 1 1 1 0 1 0 0 0 0 1 0 1 0 1 1 1 1 1 0 1 1 0 1 1 1 1 1 1 1 1
+ 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1 1 1 0 1 0 0 0
+ 1 0 1 0 1 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 1 1 1 0
+ 1 1 0 0 1 1 0 1 0 1 0 0 1 1 1 0 0 0 1 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1
+ 1 0 0 0 1 1 0 1 0 1 0 0 0 1 0 0 1 0 1 0 1 1 1 1 0 0 0 1 1 0 1 0 0 1 1 0 1
+ 0 0 0 1 1 0 1 1 1 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 0
+ 0 0 1 1 1 1 1 0 0 1 0 1 1 0 1 0 1 0 1 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0
+ 1 1 1 1 1 1 1 0 0 0 1 1 1 1 0 0 1 1 0 0 1 0 1 1 1 0 0 0 1 0 0 1 0 1 0 1 1
+ 0 1 0 1 1 0 1 0 0 1 0 1 0 1 1 0 0 1 1 1 1 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0
+ 1 0 0 1 1 1 1 1 1 0 1 0 0 0 1 1 1 0 1 1 0 0 1 1 0 1 0 1 0 0 1 1 0 0 1 1 0
+ 0 0 0 0 0 1 0 1 0 1 1 1 0 1 0 0 0 1 1 0 1 1 0 0 1 0 0 1 1 1 0 1 0 1 0 0 1
+ 1 1 0 1 0 0 0 0 1 1 1 1 0 0 0 1 1 1 1 0 1 0 0 1 0 0 0 0 0 1 0 1 1 1 0 0 1
+ 1 0 0 0 0 1 1 0 0 1 0 1 1 1 1 1 0 1 0 1 1 0 1 0 1 1 0 1 1 1 0 0 0 0 0 0 0
+ 0 1 0 1 1 1 1 1 1 1 1 1 0 1 1 0 1 1 0 1 1 1 0 0 1 0 1 1 0 1 1 0 0 0 1 0 0
+ 0 1 0 1 0 0 0 1 0 1 1 1 1 0 0 1 1 0 0 0 1 1 1 0 1 0 0 1 0 0 1 0 1 0 0 0 1
+ 1 0 1 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 1 0 0 1 1
+ 1 0 1 0 1 1 0 0 0 0 0 1 1 1 1 1 0 0 1 1 0 0 1 0 1 1 0 0 0 1 1 1 0 0 0 1 0
+ 1 0 1 0 0 1 0 0 1 1 1 0 0]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[  0   1   2   5   8   9  11  14  15  16  17  19  22  23  24  25  26  27
-  28  29  31  32  33  34  35  36  37  38  39  48  50  51  54  55  56  60
-  62  66  67  69  70  72  75  76  80  83  85  88  89  93  94  95  97 100
- 101 103 104 105 106 109 110 111 113 114 115 116 118 121 122 123 126 127
- 128 129 130 131 132 134 135 136 137 138 139 140 141 145 146 149 150 151
- 153 154 156 157 158 159 160 161 162 163 164 165 167 170 171 172 173 174
- 175 177 181 182 183 186 188 189 190 193 196 197 198 199 200 201 203 205
- 206 210 211 214 215 216 218 219 221 222 224 225 226 228 229 231 234 235
- 237 239 241 242 243 245 247 248 252 254 255 257 258 259 261 262 264 267
- 270 272 273 274 275 276 277 279 280 283 284 285 288 289 290 291 292 293
- 295 296 297 299 300 302 304 306 307 308 311 312 313 314 315 317 318 319
- 320 323 325 326 327 330 331 334 335 336 337 338 339 340 341 342 344 345
- 346 347 348 350 351 352 353 354 355 356 361 362 364 365 366 368 369 370
- 371 372 373 374 379 381 382 383 384 385 386 388 389 394 398 399 401 402
- 403 404 406 407 408 409 410 411 412 413 414 415 417 419 420 421 424 425
- 426 427 428 430 431 432 433 434 437 438 439 440 441 442 445 446 449 454
- 457 458 459 460 461 462 463 465 466 468 469 472 473 475 478 479 480 481
- 482 483 484 485 486 489 490 491 492 493 495 498 499 500 501 503 504 505
- 508 509 510 512 513 516 520 522 523 524 525 526 527 529 530 531 532 533
- 535 537 538 540 541 542 546 548 550 552 558 561 566 567 570 572 573 574
- 575 577 578 579 580 581 582 583 585 586 587 588 589 590 591 592 597 598
- 600 601 602 604 607 609 610 611 612 613 614 616 617 618 620 621 622 626
- 627 631 632 638 639 640 642 647 648 649 650 652 653 654 655 660 662 663
- 664 665 668 671 672 673 674 675 680 683 684 685 686 688 689 690 691 693
- 695 697 701 702 704 706 707 709 713 715 716 718 719 721 722 723 726 730
- 733 734 735 736 737 738 747 748 750]</t>
+          <t>[  0   1   2   9  12  18  20  22  24  26  27  29  34  35  39  42  43  44
+  46  47  49  50  51  52  54  56  59  61  62  66  68  69  70  71  72  73
+  74  77  78  80  81  83  84  86  87  90  94  95  96  97  98  99 101 105
+ 106 110 111 113 115 116 118 119 120 122 127 129 131 132 133 134 135 137
+ 138 140 141 142 143 144 145 146 147 151 154 158 164 166 169 170 177 178
+ 179 181 185 187 189 192 198 199 200 206 208 216 217 218 219 220 222 223
+ 226 227 229 231 234 235 236 240 241 243 245 246 248 256 258 259 263 264
+ 266 268 272 275 277 279 280 281 282 286 287 289 292 293 295 299 300 302
+ 303 304 306 308 309 312 315 320 321 322 324 326 327 328 329 330 331 335
+ 336 337 338 339 342 344 345 347 349 351 354 355 358 362 370 371 372 373
+ 374 375 376 380 381 382 383 386 387 390 392 393 394 398 401 403 405 406
+ 408 410 411 413 416 418 420 421 424 425 426 427 430 431 435 441 444 447
+ 448 449 450 451 452 454 458 459 460 462 463 466 467 469 471 474 475 478
+ 479 486 488 490 491 492 494 498 499 501 502 505 508 509 510 512 514 517
+ 518 519 521 526 527 528 529 533 534 535 536 538 541 547 549 550 551 554
+ 555 560 561 564 566 567 568 569 570 572 574 575 577 579 580 582 583 584
+ 593 595 596 597 598 599 600 601 602 603 605 606 608 609 611 612 613 616
+ 618 619 621 622 626 630 632 636 638 639 640 641 644 645 649 650 651 653
+ 656 659 661 665 666 668 670 673 674 676 679 689 691 693 695 697 698 701
+ 702 703 705 707 708 714 715 716 717 718 721 722 725 727 728 732 733 734
+ 738 740 742 745 748 749 750]</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0.9736842105263158</v>
       </c>
       <c r="E5" t="n">
-        <v>20.34834027290344</v>
+        <v>24.84097599983215</v>
       </c>
     </row>
     <row r="6">
@@ -721,59 +711,59 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1 1 0 0 1 0 1 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 0 1 1 1 1 1 1 0 1 1 1 0 1
- 1 0 1 0 1 1 1 1 0 1 0 1 0 1 1 0 1 1 0 1 1 0 1 1 1 0 0 1 1 0 1 0 1 0 0 0 0
- 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 1 1 1 0 1 0 1 0 1 1 0 1 1 1 0 1 0 1 1 1 1 0
- 1 1 0 1 0 0 0 0 1 1 0 1 1 0 1 1 1 1 1 1 1 1 0 1 1 0 0 1 0 0 1 1 0 0 1 0 0
- 0 1 1 0 1 0 1 0 1 1 0 1 0 0 0 1 1 1 1 0 1 1 1 0 1 1 0 0 0 0 0 0 0 1 0 0 1
- 0 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 1 1 0 0 1 0 1 1 0 1 0 0 0 1 0 0 1 1 1 0
- 0 0 0 1 1 1 0 1 1 1 1 0 1 0 1 0 1 0 1 0 1 0 1 1 0 0 1 1 0 1 1 1 1 1 0 1 1
- 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 1 1 0 1 1 0 1 0 1 1 0 1 0 1 1 1 1 1 1 0 1 1
- 1 0 1 1 0 1 0 1 1 1 1 1 1 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 1 1 1 0 0 1 0 0
- 1 0 0 0 1 0 0 1 0 0 0 0 1 1 0 1 1 0 0 1 1 0 1 1 1 1 0 0 1 0 1 0 1 1 0 0 0
- 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 1 1 1 1 0 1 0 1 0 1 0 0 1 1 0 1
- 1 0 0 1 1 1 1 0 0 1 1 1 1 0 1 0 0 1 1 1 0 1 1 0 0 1 0 1 1 0 0 0 1 0 1 0 0
- 1 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 1 0 0 0 1 1 1 1 1 1
- 1 1 0 1 1 0 1 0 0 1 0 1 1 0 0 0 0 0 1 0 1 1 0 1 1 1 1 0 0 0 1 0 0 0 1 0 0
- 0 1 0 0 1 0 0 0 1 1 1 1 0 0 0 0 0 1 0 1 1 0 1 1 1 0 0 0 1 1 1 0 1 0 0 0 0
- 1 0 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 1 0 0 0 1 0 1 1 0 0 1 1 0 0 0 1 1 0 0 1
- 0 1 1 0 1 1 1 1 1 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 1 0 0 1
- 1 1 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 1 1 1 1 1 0 1 0 0 0 0 0 0 1 1 1 1 0 0
- 1 1 0 1 0 0 1 0 1 1 0 1 0 1 1 1 0 1 0 1 1 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 0
- 1 0 1 0 0 0 0 0 1 1 1 0 1 1 0 1 1 0 1 1 1 0 0 0 0 1 0 1 0 1 1 0 1 1 0 1 1
- 0 0 0 1 1 1 1 0 1 0 0 0 0]</t>
+          <t>[1 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 1 0 1 1 1 1 1 1 1 0 0 0 1 1
+ 1 0 0 1 0 0 1 1 0 0 0 1 0 1 0 1 0 1 0 0 0 1 1 1 1 1 0 1 1 1 0 0 1 1 0 1 1
+ 1 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 0 1 0 0 0 1 0 0 1 0 0 0 1
+ 1 0 0 0 0 1 1 0 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 1 1
+ 0 0 1 0 0 0 1 0 1 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 1 1 1 0 0 1 1 1 1 1 0
+ 1 1 1 0 1 0 0 0 1 1 0 1 1 1 1 1 0 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 1 1 0 0 1
+ 0 0 1 0 1 0 0 0 0 1 0 0 1 1 1 1 1 1 1 0 1 1 0 1 1 1 1 0 1 0 1 1 1 1 0 0 1
+ 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 1 1 0 1 0 1 1 1 0 0 0 0 1 1 0 0 0 1 0
+ 1 0 1 1 0 1 0 1 1 1 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 1 1 1 0 0 1 1
+ 1 0 0 1 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 1 1 1 1 1 1 1
+ 1 1 1 1 1 1 1 0 1 1 0 1 1 0 1 1 1 0 1 0 0 1 0 1 0 0 1 0 1 1 0 0 1 0 0 1 1
+ 0 0 1 0 0 0 0 1 0 1 0 1 1 0 1 1 1 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 1
+ 0 1 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 1 1 1 0 1 0 1 1 0 0 1 0 1 0 1
+ 1 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 0 1 1 0 1 1 1 1 0 0 1 1 0 1 1 0
+ 0 1 0 1 1 1 0 0 0 1 1 0 0 1 0 0 0 1 1 1 1 1 1 1 0 1 0 0 0 1 1 0 1 1 0 1 1
+ 0 0 1 0 1 1 1 1 0 1 1 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 1 1 0 1 0 1 1 1 1
+ 0 0 1 1 0 0 0 1 1 0 1 0 1 0 1 0 0 0 1 0 0 1 1 1 1 1 0 1 1 1 0 0 0 1 1 0 0
+ 0 0 0 1 1 0 1 0 0 0 1 1 0 1 1 1 0 0 0 0 1 1 0 0 0 1 0 1 1 1 0 0 0 1 1 1 0
+ 1 0 1 1 1 0 1 0 1 1 1 1 0 1 0 0 1 1 1 1 1 0 0 0 1 1 0 0 1 1 0 0 1 0 1 1 1
+ 1 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 1 1 1 1 1 0 1 1 0 1 1 0 0 1 1
+ 0 1 0 0 0 0 0 0 0 1 0 1 1]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[  0   1   4   6  12  13  14  15  22  25  26  27  28  29  30  32  33  34
-  36  37  39  41  42  43  44  46  48  50  51  53  54  56  57  59  60  61
-  64  65  67  69  76  79  80  82  88  89  90  91  93  95  97  98 100 101
- 102 104 106 107 108 109 111 112 114 119 120 122 123 125 126 127 128 129
- 130 131 132 134 135 138 141 142 145 149 150 152 154 156 157 159 163 164
- 165 166 168 169 170 172 173 181 184 186 187 191 195 197 201 202 203 206
- 208 209 211 215 218 219 220 225 226 227 229 230 231 232 234 236 238 240
- 242 244 245 248 249 251 252 253 254 255 257 258 266 270 271 273 274 275
- 277 278 280 282 283 285 287 288 289 290 291 292 294 295 296 298 299 301
- 303 304 305 306 307 308 312 316 317 322 324 325 326 327 330 333 337 340
- 345 346 348 349 352 353 355 356 357 358 361 363 365 366 375 378 380 381
- 387 391 392 393 394 396 398 400 403 404 406 407 410 411 412 413 416 417
- 418 419 421 424 425 426 428 429 432 434 435 439 441 444 445 446 450 452
- 453 460 461 465 467 470 471 475 476 477 478 479 480 481 482 484 485 487
- 490 492 493 499 501 502 504 505 506 507 511 515 519 522 526 527 528 529
- 535 537 538 540 541 542 546 547 548 550 555 564 565 566 567 569 572 576
- 578 579 582 583 587 588 591 593 594 596 597 598 599 600 601 602 607 609
- 616 618 620 622 624 625 628 629 630 631 632 636 639 642 646 647 648 649
- 650 651 653 660 661 662 663 666 667 669 672 674 675 677 679 680 681 683
- 685 686 689 690 695 698 700 703 705 711 712 713 715 716 718 719 721 722
- 723 728 730 732 733 735 736 738 739 743 744 745 746 748]</t>
+          <t>[  0   2   3   5  10  12  16  17  18  23  25  26  27  28  29  30  31  35
+  36  37  40  43  44  48  50  52  54  58  59  60  61  62  64  65  66  69
+  70  72  73  74  80  81  82  83  85  91  92  93  95  97  99 103 106 110
+ 111 116 117 120 124 125 127 132 136 140 141 144 146 147 150 154 156 158
+ 161 162 163 165 173 174 175 176 179 180 181 182 183 185 186 187 189 193
+ 194 196 197 198 199 200 207 208 209 210 214 217 218 221 224 226 231 234
+ 235 236 237 238 239 240 242 243 245 246 247 248 250 252 253 254 255 258
+ 259 261 266 272 274 275 277 278 280 282 283 284 289 290 294 296 298 299
+ 301 303 304 305 308 309 310 316 317 321 325 326 327 328 331 332 333 336
+ 338 339 344 345 352 353 356 358 359 363 364 365 366 367 368 369 370 371
+ 372 373 374 375 376 378 379 381 382 384 385 386 388 391 393 396 398 399
+ 402 405 406 409 414 416 418 419 421 422 423 424 426 428 429 431 439 441
+ 443 445 446 450 454 455 458 461 462 466 467 468 470 472 473 476 478 480
+ 481 482 486 492 493 496 497 499 503 504 506 507 508 509 512 513 515 516
+ 519 521 522 523 527 528 531 535 536 537 538 539 540 541 543 547 548 550
+ 551 553 554 557 559 560 561 562 564 565 569 571 573 577 579 583 584 586
+ 588 589 590 591 594 595 599 600 602 604 606 610 613 614 615 616 617 619
+ 620 621 625 626 632 633 635 639 640 642 643 644 649 650 654 656 657 658
+ 662 663 664 666 668 669 670 672 674 675 676 677 679 682 683 684 685 686
+ 690 691 694 695 698 700 701 702 703 706 713 714 716 717 721 725 726 727
+ 728 729 731 732 734 735 738 739 741 749 751 752]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E6" t="n">
-        <v>18.89183473587036</v>
+        <v>21.53199362754822</v>
       </c>
     </row>
     <row r="7">
@@ -782,60 +772,58 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 1 0 1 1 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 1 0 0 1 0 1 0 0 1 0
- 0 0 0 0 0 1 0 0 1 1 0 1 1 0 1 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1
- 1 1 1 1 0 1 1 1 1 1 1 1 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 1 1 0 0 1 0 0 1 1 1
- 0 1 0 0 1 1 1 0 1 0 1 0 0 1 1 0 0 1 0 1 0 1 1 1 0 1 1 0 1 1 1 1 1 1 1 1 0
- 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 0 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 1 0
- 1 1 0 1 0 1 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 0 0
- 1 0 1 0 1 0 1 1 0 1 0 0 0 0 1 1 1 1 0 1 0 0 1 0 0 1 1 1 1 1 1 1 1 0 0 0 0
- 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 1 1 0 1 0 1 0 0 1 1 0 1 0 0 1 1 0 1 1 1 0 0
- 1 0 1 0 1 1 0 0 0 1 1 1 1 0 0 0 0 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 1 0 0 0
- 1 0 1 0 0 1 1 1 1 1 1 0 1 1 1 1 1 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 1 0 1 1
- 1 0 1 1 1 1 0 0 1 1 1 1 1 0 0 0 0 0 1 1 1 1 1 0 0 0 0 1 1 1 1 1 0 1 1 1 0
- 1 1 0 0 1 0 1 0 1 0 1 0 1 0 0 0 1 1 1 1 1 0 0 0 1 0 1 0 0 0 1 0 0 1 1 1 0
- 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 1 0 1 1 0 1 1 1 1 0 1 1 1 0 1 0 0 1 0 0 0 0
- 1 0 1 1 1 1 1 0 0 1 0 1 0 0 0 0 0 1 1 0 1 1 1 1 0 0 0 1 1 0 0 0 1 0 0 1 1
- 0 0 0 0 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0
- 1 0 1 1 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 1 0 1 1 1 1
- 1 1 1 0 0 1 1 0 1 0 0 1 0 0 1 0 1 1 1 1 0 1 0 1 0 1 1 1 0 0 0 1 1 1 0 1 0
- 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 1 1 0 1 0 0 1 0 1 0 1 0 1 1 1 1 1
- 0 0 0 1 1 1 1 0 0 0 1 1 1 1 0 1 1 0 0 1 1 1 0 1 0 1 1 0 1 0 1 0 1 1 0 0 1
- 1 1 0 0 1 1 1 1 0 0 0 0 0 1 0 0 1 0 1 1 1 1 1 1 0 0 0 1 1 1 0 1 0 0 1 1 0
- 1 1 1 0 1 0 1 0 0 1 1 1 0]</t>
+          <t>[1 0 1 1 0 1 0 0 1 0 0 1 0 1 1 0 0 1 1 0 0 0 0 1 1 0 0 0 1 1 1 1 0 0 1 0 0
+ 1 0 1 1 1 0 1 1 0 0 1 1 0 1 1 1 1 0 0 0 0 1 1 0 0 0 0 0 1 1 1 1 0 0 0 1 1
+ 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 1
+ 0 1 0 1 1 1 0 0 1 0 1 1 0 1 0 1 1 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 1 1 1
+ 1 0 0 1 1 0 0 0 0 1 0 0 0 1 1 0 1 1 0 0 1 1 0 0 1 0 0 1 1 1 0 1 1 1 0 0 1
+ 0 1 0 0 1 0 1 0 1 0 0 1 0 0 1 1 0 1 1 1 0 1 0 0 0 1 1 0 0 0 1 0 1 0 1 0 1
+ 0 0 1 0 1 0 0 1 0 1 0 1 0 1 1 0 0 0 1 0 1 1 1 1 1 0 0 1 1 0 0 0 1 0 1 1 1
+ 0 0 0 1 1 0 0 0 0 1 1 1 0 0 1 1 1 1 0 0 1 0 1 0 1 1 1 1 0 0 0 0 0 1 0 1 0
+ 1 1 0 1 0 1 1 1 1 1 0 0 0 0 0 1 1 1 0 0 0 1 0 1 1 0 0 1 1 1 0 0 0 1 0 0 0
+ 0 1 0 1 0 0 0 1 1 1 0 1 1 0 1 1 1 1 1 0 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0
+ 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 1 1 0 1 0 0 1 0
+ 1 0 1 0 1 0 0 0 1 1 1 0 1 1 0 1 0 0 0 1 1 1 1 1 0 1 0 1 0 1 0 0 0 1 0 1 0
+ 0 0 1 0 0 0 1 1 1 1 0 0 0 1 1 0 1 0 0 1 0 1 1 1 0 1 0 1 0 1 0 0 1 1 1 0 0
+ 0 0 1 1 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 1 1 1
+ 0 0 1 1 1 1 1 1 0 1 0 1 1 0 0 1 0 1 1 1 0 0 1 0 0 1 0 1 1 1 1 1 0 0 0 0 0
+ 0 1 1 0 1 1 0 1 1 1 0 1 1 1 0 0 1 1 1 1 1 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 0
+ 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 1 1 0 0 0
+ 0 1 0 0 0 0 1 0 0 1 1 0 1 1 0 0 1 0 0 1 1 1 0 1 1 0 0 1 1 1 0 0 1 1 0 1 1
+ 0 0 1 0 1 1 0 0 0 0 0 1 1 1 1 0 0 0 1 1 0 1 0 0 1 1 1 0 0 0 0 1 1 1 1 1 0
+ 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 1 1 0 1 0 1 0 0 1 1 0 0 1
+ 1 1 1 1 1 1 0 1 0 1 1 1 0]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[  0   1   2   3   4   5   7   9  10  17  18  20  21  22  27  30  32  35
-  42  45  46  48  49  51  52  54  56  57  62  67  70  73  74  75  76  77
-  79  80  81  82  83  84  85  86  87  91  94  95 101 102 105 108 109 110
- 112 115 116 117 119 121 124 125 128 130 132 133 134 136 137 139 140 141
- 142 143 144 145 146 149 157 160 162 164 165 168 170 174 179 180 183 185
- 186 188 190 192 197 200 201 208 209 210 212 214 215 216 217 218 219 222
- 224 226 228 229 231 236 237 238 239 241 244 247 248 249 250 251 252 253
- 254 260 262 264 267 272 274 275 277 279 282 283 285 288 289 291 292 293
- 296 298 300 301 305 306 307 308 313 315 316 317 318 319 320 321 322 324
- 325 326 328 329 333 335 338 339 340 341 342 343 345 346 347 348 349 359
- 360 361 362 366 368 369 370 372 373 374 375 378 379 380 381 382 388 389
- 390 391 392 397 398 399 400 401 403 404 405 407 408 411 413 415 417 419
- 423 424 425 426 427 431 433 437 440 441 442 449 453 455 456 459 461 462
- 464 465 466 467 469 470 471 473 476 481 483 484 485 486 487 490 492 498
- 499 501 502 503 504 508 509 513 516 517 522 524 527 529 530 531 533 534
- 535 536 537 538 539 542 544 547 550 552 555 557 558 561 563 566 570 574
- 578 581 585 586 588 589 590 591 592 593 594 597 598 600 603 606 608 609
- 610 611 613 615 617 618 619 623 624 625 627 630 632 635 637 644 647 648
- 649 650 652 655 657 659 661 662 663 664 665 669 670 671 672 676 677 678
- 679 681 682 685 686 687 689 691 692 694 696 698 699 702 703 704 707 708
- 709 710 716 719 721 722 723 724 725 726 730 731 732 734 737 738 740 741
- 742 744 746 749 750 751]</t>
+          <t>[  0   2   3   5   8  11  13  14  17  18  23  24  28  29  30  31  34  37
+  39  40  41  43  44  47  48  50  51  52  53  58  59  65  66  67  68  72
+  73  77  78  79  86  90  93  94 100 101 104 109 110 112 114 115 116 119
+ 121 122 124 126 127 129 131 133 134 136 145 146 147 148 151 152 157 161
+ 162 164 165 168 169 172 175 176 177 179 180 181 184 186 189 191 193 196
+ 199 200 202 203 204 206 210 211 215 217 219 221 224 226 229 231 233 235
+ 236 240 242 243 244 245 246 249 250 254 256 257 258 262 263 268 269 270
+ 273 274 275 276 279 281 283 284 285 286 292 294 296 297 299 301 302 303
+ 304 305 311 312 313 317 319 320 323 324 325 329 334 336 340 341 342 344
+ 345 347 348 349 350 351 353 354 355 361 364 368 373 378 379 382 385 390
+ 391 393 396 399 400 402 405 407 409 411 415 416 417 419 420 422 426 427
+ 428 429 430 432 434 436 440 442 446 450 451 452 453 457 458 460 463 465
+ 466 467 469 471 473 476 477 478 483 484 487 490 493 494 506 507 508 513
+ 515 516 517 520 521 522 523 524 525 527 529 530 533 535 536 537 540 543
+ 545 546 547 548 549 556 557 559 560 562 563 564 566 567 568 571 572 573
+ 574 575 577 584 585 586 588 592 599 601 603 606 609 613 617 621 623 624
+ 625 630 635 638 639 641 642 645 648 649 650 652 653 656 657 658 661 662
+ 664 665 668 670 671 677 678 679 680 684 685 687 690 691 692 697 698 699
+ 700 701 703 710 715 717 718 726 727 728 730 732 735 736 739 740 741 742
+ 743 744 745 747 749 750 751]</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>0.9736842105263158</v>
       </c>
       <c r="E7" t="n">
-        <v>17.64516425132751</v>
+        <v>17.37574219703674</v>
       </c>
     </row>
     <row r="8">
@@ -844,59 +832,65 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[0 1 0 1 1 0 1 1 0 0 1 1 0 1 1 1 0 0 0 1 0 1 0 1 1 1 0 1 1 0 1 1 1 0 1 1 1
- 0 0 1 0 0 1 1 1 1 1 1 1 0 0 1 1 1 1 0 0 1 0 1 1 1 0 1 0 1 1 0 1 1 1 0 1 1
- 1 1 1 0 0 1 1 1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1 1 0 1 0 0 0 0 1 0 0 0
- 0 1 0 1 0 1 0 0 1 0 1 0 0 1 1 1 1 0 0 0 1 1 0 1 1 1 1 1 1 1 0 0 0 0 0 0 0
- 0 0 1 1 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0
- 0 1 0 1 1 0 1 1 1 0 1 0 0 1 1 1 0 0 0 1 1 0 0 0 1 1 1 0 0 0 0 1 0 1 0 1 1
- 0 0 0 1 0 1 0 1 1 0 1 1 0 1 1 1 0 1 0 1 1 1 1 1 1 0 0 0 0 0 1 0 0 1 0 1 1
- 1 1 0 0 1 0 0 1 1 1 0 1 1 0 1 1 0 0 0 0 1 1 1 1 1 1 0 0 0 1 0 0 0 1 0 1 0
- 1 0 0 0 1 0 1 0 0 1 1 1 0 1 0 1 1 0 1 0 1 1 1 0 0 0 1 0 1 0 0 1 1 1 1 0 0
- 1 1 0 0 0 0 0 1 1 1 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 0 1 1 0
- 0 0 1 1 0 1 1 0 0 0 1 1 1 1 1 0 1 0 1 1 1 0 0 1 0 0 0 1 0 0 1 1 1 0 0 1 0
- 1 1 0 0 1 0 0 1 0 0 1 0 0 1 0 0 1 1 1 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0
- 0 1 0 1 0 1 0 1 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 1 1 1 1 1 1 0 0 1 1 0 1 0
- 1 0 1 1 0 1 0 0 0 0 1 1 1 0 1 0 1 1 1 1 0 0 0 1 1 0 1 1 1 0 1 0 1 0 1 0 1
- 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 1
- 1 1 1 0 1 0 1 0 0 1 1 1 0 1 1 1 0 1 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0
- 1 1 0 0 0 0 0 0 1 1 1 1 0 0 0 1 1 1 1 1 0 1 0 1 0 1 1 1 1 0 1 1 0 1 1 0 0
- 1 1 0 0 0 1 1 1 1 0 1 0 0 0 0 1 0 0 0 1 1 1 0 1 0 0 0 1 0 1 0 1 0 1 0 0 0
- 1 0 1 0 1 1 1 1 0 0 1 0 0 0 0 1 0 1 1 1 0 1 1 1 0 0 0 1 0 0 1 0 0 1 1 0 0
- 0 0 1 1 1 0 1 0 0 1 0 1 0 1 1 0 1 1 0 1 0 1 0 1 1 0 1 0 1 0 1 1 1 1 1 0 0
- 1 1 1 0 0 1 0 0 1 1 1 1 1]</t>
+          <t>[1 1 0 0 1 1 0 1 0 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 0 1 0 1 1 0 1 1 0 0 1 1 0
+ 1 1 1 0 1 0 1 1 0 1 1 0 1 1 1 1 0 1 1 1 0 1 1 1 0 0 1 0 1 1 1 0 1 1 0 1 1
+ 0 1 1 0 1 1 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 1 1 1 1 0 0 1 0
+ 1 1 1 0 0 1 1 1 0 0 1 1 1 0 1 1 1 1 0 0 1 1 1 1 1 0 1 0 1 1 0 0 0 1 1 1 1
+ 1 1 0 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 0 0 1 1 1 1 1 0 0 1 0 0 1 1 1 1 1 0 1
+ 0 0 0 1 1 0 1 1 1 1 0 1 0 1 1 0 0 0 1 0 0 1 0 1 1 1 1 0 1 1 0 0 0 1 1 1 0
+ 1 1 1 1 0 1 0 1 1 0 1 0 1 0 0 0 1 1 1 1 1 1 1 1 1 0 1 1 1 1 0 0 1 1 1 1 0
+ 1 0 1 0 1 1 0 1 0 0 0 1 1 1 0 1 0 0 1 1 0 1 0 1 0 1 0 0 0 1 0 0 0 1 1 1 1
+ 1 1 1 0 1 0 0 0 1 1 0 1 1 0 1 1 0 1 1 1 1 1 0 1 1 1 1 1 1 1 0 0 1 1 0 1 1
+ 1 0 1 1 0 1 0 0 1 1 1 1 1 1 0 1 0 0 1 1 1 1 1 0 0 1 1 1 1 1 0 0 0 0 0 1 1
+ 1 1 0 1 0 0 1 1 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 1 1 0 1 0
+ 1 1 1 1 0 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 0 1 1 1 1 0 1 0 0 1 1
+ 1 0 0 1 1 1 1 1 1 0 1 0 1 1 1 0 1 1 1 1 1 0 0 1 1 1 0 0 1 1 1 1 0 0 0 1 0
+ 1 0 1 1 0 1 0 1 1 1 1 0 1 0 1 1 1 0 0 1 0 1 0 1 0 0 1 1 1 1 0 0 1 1 0 0 1
+ 1 1 1 1 0 1 1 1 0 0 1 0 1 1 1 1 1 0 1 0 0 1 1 0 1 1 0 1 0 0 1 1 0 0 1 1 0
+ 1 0 1 1 0 1 1 0 0 1 1 0 0 0 0 1 1 1 1 0 0 1 1 1 1 0 0 1 0 1 1 1 0 0 1 1 1
+ 1 0 1 1 0 1 1 0 0 1 0 1 1 1 1 0 1 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 0 1 1 1
+ 1 1 1 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 0 0 1 1 1 1 1 1
+ 1 1 1 1 1 1 1 0 1 1 1 1 0 1 0 0 1 0 1 0 0 1 1 0 0 1 0 1 0 1 1 0 0 1 0 0 1
+ 0 1 1 0 1 1 0 1 0 1 0 0 1 0 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 0 1 1 1 0 1 0 0
+ 0 1 0 1 1 1 1 1 1 1 0 0 0]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[  1   3   4   6   7  10  11  13  14  15  19  21  23  24  25  27  28  30
-  31  32  34  35  36  39  42  43  44  45  46  47  48  51  52  53  54  57
-  59  60  61  63  65  66  68  69  70  72  73  74  75  76  79  80  81  83
-  84  85  86  88  90  92  94  95  97  98  99 100 102 107 112 114 116 119
- 121 124 125 126 127 131 132 134 135 136 137 138 139 140 150 151 153 154
- 158 159 163 165 168 175 178 180 181 183 186 188 189 191 192 193 195 198
- 199 200 204 205 209 210 211 216 218 220 221 225 227 229 230 232 233 235
- 236 237 239 241 242 243 244 245 246 252 255 257 258 259 260 263 266 267
- 268 270 271 273 274 279 280 281 282 283 284 288 292 294 296 300 302 305
- 306 307 309 311 312 314 316 317 318 322 324 327 328 329 330 333 334 340
- 341 342 344 345 346 350 352 358 360 361 362 367 368 372 373 375 376 380
- 381 382 383 384 386 388 389 390 393 397 400 401 402 405 407 408 411 414
- 417 420 423 424 425 426 427 434 436 437 445 447 449 451 454 460 462 464
- 467 468 469 470 471 472 473 476 477 479 481 483 484 486 491 492 493 495
- 497 498 499 500 504 505 507 508 509 511 513 515 517 518 519 533 535 540
- 541 543 544 554 555 556 557 559 561 564 565 566 568 569 570 572 574 577
- 578 580 588 590 592 593 600 601 602 603 607 608 609 610 611 613 615 617
- 618 619 620 622 623 625 626 629 630 634 635 636 637 639 644 648 649 650
- 652 656 658 660 662 666 668 670 671 672 673 676 681 683 684 685 687 688
- 689 693 696 699 700 705 706 707 709 712 714 716 717 719 720 722 724 726
- 727 729 731 733 734 735 736 737 740 741 742 745 748 749 750 751 752]</t>
+          <t>[  0   1   4   5   7   9  10  11  14  15  16  17  18  19  20  21  22  23
+  25  27  28  30  31  34  35  37  38  39  41  43  44  46  47  49  50  51
+  52  54  55  56  58  59  60  63  65  66  67  69  70  72  73  75  76  78
+  79  83  84  86  90  93  95  99 103 104 105 106 109 111 112 113 116 117
+ 118 121 122 123 125 126 127 128 131 132 133 134 135 137 139 140 144 145
+ 146 147 148 149 151 152 154 155 156 157 158 159 160 161 162 163 164 165
+ 168 169 170 171 172 175 178 179 180 181 182 184 188 189 191 192 193 194
+ 196 198 199 203 206 208 209 210 211 213 214 218 219 220 222 223 224 225
+ 227 229 230 232 234 238 239 240 241 242 243 244 245 246 248 249 250 251
+ 254 255 256 257 259 261 263 264 266 270 271 272 274 277 278 280 282 284
+ 288 292 293 294 295 296 297 298 300 304 305 307 308 310 311 313 314 315
+ 316 317 319 320 321 322 323 324 325 328 329 331 332 333 335 336 338 341
+ 342 343 344 345 346 348 351 352 353 354 355 358 359 360 361 362 368 369
+ 370 371 373 376 377 378 380 382 383 388 393 394 395 396 402 403 405 407
+ 408 409 410 412 413 414 415 418 419 420 421 422 423 424 425 426 427 428
+ 429 430 431 434 435 436 437 439 442 443 444 447 448 449 450 451 452 454
+ 456 457 458 460 461 462 463 464 467 468 469 472 473 474 475 479 481 483
+ 484 486 488 489 490 491 493 495 496 497 500 502 504 507 508 509 510 513
+ 514 517 518 519 520 521 523 524 525 528 530 531 532 533 534 536 539 540
+ 542 543 545 548 549 552 553 555 557 558 560 561 564 565 570 571 572 573
+ 576 577 578 579 582 584 585 586 589 590 591 592 594 595 597 598 601 603
+ 604 605 606 608 609 612 613 614 615 616 617 618 620 621 622 623 624 626
+ 627 628 629 630 631 632 633 634 635 636 637 638 639 643 645 646 647 648
+ 649 650 651 652 655 660 661 662 663 664 665 666 667 668 669 670 671 672
+ 674 675 676 677 679 682 684 687 688 691 693 695 696 699 702 704 705 707
+ 708 710 712 715 717 718 719 720 721 724 727 729 730 733 734 735 737 741
+ 743 744 745 746 747 748 749]</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0.9605263157894737</v>
       </c>
       <c r="E8" t="n">
-        <v>18.66711020469666</v>
+        <v>24.1938898563385</v>
       </c>
     </row>
     <row r="9">
@@ -905,61 +899,59 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[1 1 0 1 1 0 0 1 0 1 0 0 1 1 0 0 1 1 1 0 1 0 1 0 1 1 1 0 1 0 0 0 1 1 1 0 1
- 0 0 1 1 1 1 0 0 1 1 0 0 0 1 1 1 0 1 1 0 1 0 1 0 0 0 1 1 1 1 1 1 0 1 1 0 0
- 0 1 1 1 0 0 1 0 0 1 1 1 0 1 1 0 1 1 0 0 0 0 0 1 1 0 1 1 0 1 1 1 1 1 1 1 1
- 0 0 0 1 0 1 1 1 1 0 1 1 0 1 0 1 1 0 1 1 1 0 1 1 1 1 1 0 1 1 1 1 1 0 1 0 1
- 0 0 1 0 0 0 1 1 1 0 1 0 1 1 1 1 0 0 1 1 1 0 0 1 0 1 1 1 0 1 1 0 0 1 0 0 0
- 0 1 0 0 1 0 1 0 1 1 0 0 1 1 0 1 1 1 1 0 0 1 1 0 1 1 0 1 0 0 1 1 0 1 1 1 0
- 1 0 1 1 1 0 0 0 1 1 1 0 1 0 1 1 0 1 1 0 0 0 1 0 1 1 1 1 0 0 1 1 1 0 0 0 1
- 1 1 0 1 0 1 1 1 0 1 0 1 0 0 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 0 0 1 0 0 0 1 0
- 0 1 0 1 0 1 1 1 0 1 1 0 0 1 1 1 0 1 0 1 0 0 1 1 0 0 0 1 0 1 0 1 0 1 0 0 1
- 1 1 1 1 1 1 0 0 0 1 1 0 1 1 0 0 1 1 0 1 1 1 1 0 0 0 0 1 1 1 1 1 0 1 0 0 0
- 0 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1 1 0 1 1 1 1 0 1 1 0 0 1 1 0 1 1 0 0 1 1
- 0 1 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1
- 1 0 0 1 1 0 0 1 1 1 1 0 0 0 1 1 1 0 0 0 1 1 1 1 1 1 0 1 1 0 1 1 1 0 1 1 0
- 1 1 1 0 1 1 0 0 1 0 1 1 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0 0 0 0 1 1 1 0 0 0 0
- 1 1 0 0 0 1 1 1 1 0 1 0 0 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 1 0 1 1 1 1 1 0 1
- 1 1 1 0 1 0 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 1 1 0 1 0 0 0 1 1 1 0 0 0 1 1 1
- 1 1 1 1 0 0 0 1 0 0 0 0 1 1 1 0 1 1 0 0 1 0 0 0 1 0 1 1 1 1 1 1 0 0 1 1 0
- 0 1 1 0 1 0 1 0 1 0 0 1 0 1 0 1 0 1 0 1 1 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0
- 0 1 0 1 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 1 1 0 0 0 0 1 1
- 0 1 1 1 0 1 1 1 0 1 0 0 1 1 1 1 0 0 0 0 0 0 1 1 0 1 1 1 0 0 1 0 1 0 0 1 0
- 0 0 0 1 1 1 1 0 0 1 0 0 1]</t>
+          <t>[1 0 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 1 1 0 0 0 1 0 0 1 0 1 0 0 1 1 0 1 1 1
+ 0 1 1 1 1 1 0 1 1 1 1 1 1 0 1 1 1 0 1 1 1 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 1
+ 1 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 1 1 0 1 0 1 1 1 0 1 1 1 0 0
+ 0 1 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 1 1 1 0 1 1 0 1
+ 1 1 1 0 1 0 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0
+ 1 0 0 1 1 0 1 1 1 1 1 0 1 1 0 1 0 0 0 0 0 0 1 1 1 0 1 0 1 1 0 0 1 1 1 1 1
+ 1 0 0 1 1 0 0 0 0 1 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 0 1 1 1 1 0 1 0 1 1
+ 0 0 1 1 1 0 1 1 0 0 1 1 1 0 1 1 0 0 1 0 1 1 0 0 1 1 0 0 1 0 1 1 0 0 1 0 1
+ 0 1 0 0 1 1 0 0 0 0 1 1 1 1 0 0 1 0 1 1 0 0 0 0 0 0 1 1 1 0 1 1 1 0 1 1 0
+ 1 0 1 1 0 1 1 1 1 0 0 1 1 0 1 1 0 1 1 1 1 0 0 1 1 0 1 0 0 1 1 1 1 1 1 1 0
+ 1 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 0 1 0 1 1 1 0 1 1 1 1 0 1 1 1
+ 0 1 1 0 0 1 0 0 0 1 0 1 0 0 1 1 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0
+ 0 1 1 1 0 0 1 0 0 1 0 1 1 0 1 0 0 0 1 0 1 1 1 0 0 1 1 1 0 1 1 0 0 1 1 0 1
+ 0 0 1 0 1 1 1 1 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 1 1 0 0 1
+ 0 0 1 1 0 0 0 1 1 1 1 1 1 1 0 0 0 1 1 1 0 0 1 0 0 0 1 1 0 0 1 0 1 1 0 1 0
+ 0 1 1 1 1 1 1 0 1 1 1 1 1 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 1 1 1 0 0 0 1 1 0
+ 0 1 1 1 0 1 0 0 0 1 1 1 1 0 1 1 0 0 1 1 0 1 1 1 1 1 0 1 0 1 0 0 0 0 1 0 0
+ 1 0 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 1 1 1 1 0 0 1 1
+ 0 0 1 1 0 1 0 0 0 0 0 1 0 1 1 1 1 1 0 1 1 0 1 0 0 0 1 0 0 1 0 0 1 1 1 0 0
+ 1 0 0 1 1 1 1 0 0 0 0 0 1 1 1 0 0 0 1 1 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0
+ 1 1 0 0 1 0 0 1 0 1 0 1 0]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[  0   1   3   4   7   9  12  13  16  17  18  20  22  24  25  26  28  32
-  33  34  36  39  40  41  42  45  46  50  51  52  54  55  57  59  63  64
-  65  66  67  68  70  71  75  76  77  80  83  84  85  87  88  90  91  97
-  98 100 101 103 104 105 106 107 108 109 110 114 116 117 118 119 121 122
- 124 126 127 129 130 131 133 134 135 136 137 139 140 141 142 143 145 147
- 150 154 155 156 158 160 161 162 163 166 167 168 171 173 174 175 177 178
- 181 186 189 191 193 194 197 198 200 201 202 203 206 207 209 210 212 215
- 216 218 219 220 222 224 225 226 230 231 232 234 236 237 239 240 244 246
- 247 248 249 252 253 254 258 259 260 262 264 265 266 268 270 275 276 277
- 278 279 280 281 283 284 285 286 287 290 294 297 299 301 302 303 305 306
- 309 310 311 313 315 318 319 323 325 327 329 332 333 334 335 336 337 338
- 342 343 345 346 349 350 352 353 354 355 360 361 362 363 364 366 371 373
- 374 376 377 378 379 384 386 387 389 390 391 392 394 395 398 399 401 402
- 405 406 408 410 411 416 417 420 425 427 429 434 437 443 444 447 448 451
- 452 453 454 458 459 460 464 465 466 467 468 469 471 472 474 475 476 478
- 479 481 482 483 485 486 489 491 492 494 495 496 498 500 501 502 503 504
- 505 506 511 512 513 518 519 523 524 525 526 528 531 532 534 535 537 538
- 539 540 545 546 548 549 550 551 552 554 555 556 557 559 564 567 570 571
- 572 576 577 579 583 584 585 589 590 591 592 593 594 595 599 604 605 606
- 608 609 612 616 618 619 620 621 622 623 626 627 630 631 633 635 637 640
- 642 644 646 648 649 652 653 655 657 667 669 670 671 672 674 686 690 693
- 694 695 696 701 702 704 705 706 708 709 710 712 715 716 717 718 725 726
- 728 729 730 733 735 738 743 744 745 746 749 752]</t>
+          <t>[  0   3   9  11  14  15  18  19  23  26  28  31  32  34  35  36  38  39
+  40  41  42  44  45  46  47  48  49  51  52  53  55  56  57  58  65  67
+  69  72  73  74  75  78  83  88  91  92  94  97  98 100 102 103 104 106
+ 107 108 112 113 115 118 120 127 129 134 137 140 141 142 144 145 147 148
+ 149 150 152 154 156 159 161 164 169 171 173 175 185 188 189 191 192 193
+ 194 195 197 198 200 207 208 209 211 213 214 217 218 219 220 221 222 225
+ 226 231 232 233 237 238 242 243 247 250 251 252 253 255 257 258 261 262
+ 263 265 266 269 270 271 273 274 277 279 280 283 284 287 289 290 293 295
+ 297 300 301 306 307 308 309 312 314 315 322 323 324 326 327 328 330 331
+ 333 335 336 338 339 340 341 344 345 347 348 350 351 352 353 356 357 359
+ 362 363 364 365 366 367 368 370 373 379 381 382 386 388 393 395 396 397
+ 399 400 401 402 404 405 406 408 409 412 416 418 421 422 424 425 426 430
+ 438 439 441 442 445 446 447 450 453 455 456 458 462 464 465 466 469 470
+ 471 473 474 477 478 480 483 485 486 487 488 489 492 494 496 498 504 506
+ 509 511 513 514 517 520 521 525 526 527 528 529 530 531 535 536 537 540
+ 544 545 548 550 551 553 556 557 558 559 560 561 563 564 565 566 567 572
+ 575 579 580 581 583 584 585 589 590 593 594 595 597 601 602 603 604 606
+ 607 610 611 613 614 615 616 617 619 621 626 629 632 633 638 639 642 649
+ 650 651 653 656 658 659 660 661 664 665 668 669 671 677 679 680 681 682
+ 683 685 686 688 692 695 698 699 700 703 706 707 708 709 715 716 717 721
+ 722 723 724 726 733 738 740 741 744 747 749 751]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="E9" t="n">
-        <v>20.19817805290222</v>
+        <v>17.55158472061157</v>
       </c>
     </row>
     <row r="10">
@@ -968,60 +960,61 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[1 1 0 1 1 1 0 1 1 0 0 1 0 1 0 1 0 1 0 0 1 1 1 0 0 0 0 0 1 0 1 1 1 1 1 0 1
- 1 1 0 1 1 0 1 1 1 0 0 0 0 0 1 1 0 1 1 1 1 1 0 0 1 1 0 0 1 1 1 0 0 0 1 1 1
- 1 1 0 0 1 0 1 1 1 0 0 0 0 0 0 1 1 1 0 0 1 1 1 1 1 1 1 0 1 0 1 1 1 0 1 0 1
- 0 0 0 0 0 0 1 1 1 1 1 0 1 0 0 0 1 0 0 1 1 1 1 0 0 0 0 1 0 0 0 1 1 1 0 1 1
- 1 0 1 0 0 0 1 1 0 1 1 1 0 1 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 1
- 0 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 0 1 0 0 0 0 0 0 1 0 1 1 1 1 1 0 0 0 0 0 1
- 0 1 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0
- 0 1 0 1 0 0 1 0 1 0 1 1 1 1 1 1 0 0 1 0 1 1 0 0 0 1 1 1 1 1 1 0 0 1 1 0 1
- 1 1 1 0 1 1 1 0 0 1 1 0 0 1 1 1 1 0 0 1 1 1 1 0 0 1 1 1 1 1 0 0 0 0 1 1 1
- 1 0 0 1 1 1 0 0 1 0 1 1 1 1 1 1 1 0 1 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0
- 0 0 1 1 0 1 0 1 1 0 1 0 0 1 1 0 1 0 0 1 0 0 0 1 1 0 1 1 1 0 1 1 1 0 0 0 0
- 1 0 1 0 0 1 1 1 0 0 1 1 1 1 0 0 1 1 1 0 0 1 1 0 0 0 0 1 0 1 0 1 0 1 1 1 0
- 0 0 1 0 1 1 0 1 0 1 0 1 1 1 0 1 0 1 1 0 1 1 0 0 0 1 1 0 0 1 1 0 1 0 0 0 1
- 1 1 0 0 0 1 0 1 1 1 1 0 1 1 0 1 1 1 1 0 1 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1
- 0 1 1 1 0 0 0 1 1 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 0 1
- 0 1 1 1 1 0 1 0 1 1 0 1 0 0 1 0 1 0 0 1 0 1 1 1 0 0 0 1 0 0 0 0 0 1 1 0 1
- 0 1 0 1 1 0 1 0 0 1 0 0 1 1 0 1 0 0 1 0 0 1 0 1 0 1 1 1 1 1 0 0 1 1 1 0 1
- 0 1 0 1 0 0 1 1 1 0 1 0 0 0 1 1 1 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1
- 1 0 1 1 1 0 1 0 0 0 0 0 0 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 1 0 1 1 1 0 1 1 0
- 0 1 0 1 1 1 1 1 1 0 1 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 1 0 1
- 1 0 1 1 0 1 1 0 0 1 1 1 1]</t>
+          <t>[1 0 1 0 0 0 1 1 0 0 0 1 0 1 0 1 1 1 1 1 0 1 0 0 0 0 0 0 1 1 1 1 1 1 0 0 1
+ 0 1 0 0 1 0 1 1 1 1 1 0 1 0 1 1 0 0 0 1 1 1 1 0 0 1 1 1 1 1 0 0 0 0 0 0 0
+ 1 0 1 0 1 1 0 1 1 0 0 1 0 0 1 0 0 1 1 1 0 1 0 1 1 1 1 0 1 1 1 0 1 1 0 0 1
+ 0 0 0 1 1 0 1 1 1 0 1 0 1 1 1 0 1 0 0 0 1 1 0 1 0 0 1 0 1 1 0 0 0 1 0 1 0
+ 0 0 1 1 0 1 0 0 1 1 0 1 1 1 1 1 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 1 0 1 1 0
+ 1 0 1 0 1 1 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 1 1 1 0 0 1 1 0 1 0 0 0 1 1 1 1
+ 1 0 1 1 0 1 0 1 1 1 1 1 0 1 1 1 0 0 1 0 0 0 1 1 1 1 1 1 1 1 0 0 1 0 1 0 1
+ 1 1 1 0 0 1 1 1 1 0 1 0 1 1 0 1 0 1 1 1 1 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0
+ 1 1 0 1 1 1 0 1 1 1 0 1 0 0 0 1 1 0 1 1 0 1 0 0 1 1 1 0 1 1 0 0 1 0 0 1 0
+ 1 0 1 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 1 1 1 1 0 1 1 1 0 1 0 1 0 0 1 0 0 1
+ 1 0 1 0 1 1 0 1 0 1 1 1 1 0 0 1 0 1 0 1 0 1 1 1 0 1 0 1 1 0 1 0 0 0 1 1 1
+ 1 0 1 0 0 1 1 1 0 1 0 1 1 1 0 0 1 0 1 1 1 0 1 1 0 0 1 1 1 0 1 0 1 1 0 1 1
+ 0 1 1 1 0 1 1 1 1 0 1 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 1 1 0 1 1 0 1 1 0 0 0
+ 1 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 1 0 1 0 1 1 1 1 1 0 0 0 0 0 0 1 0 1 0 1
+ 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 1 1 1 0 1 1 0 0 0 1 1 0 1 1 0 0 1 0 1 0 1
+ 1 0 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1
+ 0 0 1 1 1 0 1 0 1 0 1 1 0 1 0 0 1 1 1 1 1 1 1 1 1 1 1 0 0 0 1 0 1 0 1 1 1
+ 0 0 0 0 0 0 0 1 1 1 0 1 1 1 1 1 1 0 1 1 1 0 0 0 1 1 0 1 0 1 1 1 1 1 1 1 0
+ 1 0 1 1 1 1 1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 0 1 0 0 1 0 0 0 1 0 1 1 1 1
+ 1 1 0 0 0 1 1 0 1 1 0 1 1 0 0 0 1 0 1 0 1 0 0 0 1 1 1 0 0 0 1 0 0 1 1 1 1
+ 0 0 0 1 1 1 0 0 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[  0   1   3   4   5   7   8  11  13  15  17  20  21  22  28  30  31  32
-  33  34  36  37  38  40  41  43  44  45  51  52  54  55  56  57  58  61
-  62  65  66  67  71  72  73  74  75  78  80  81  82  89  90  91  94  95
-  96  97  98  99 100 102 104 105 106 108 110 117 118 119 120 121 123 127
- 130 131 132 133 138 142 143 144 146 147 148 150 154 155 157 158 159 161
- 162 163 164 168 171 179 180 183 184 186 187 188 189 191 193 194 195 196
- 197 198 199 200 202 209 211 212 213 214 215 221 223 227 230 234 235 239
- 241 243 245 248 251 253 256 260 262 265 267 269 270 271 272 273 274 277
- 279 280 284 285 286 287 288 289 292 293 295 296 297 298 300 301 302 305
- 306 309 310 311 312 315 316 317 318 321 322 323 324 325 330 331 332 333
- 336 337 338 341 343 344 345 346 347 348 349 351 354 359 360 362 364 367
- 372 373 375 377 378 380 383 384 386 389 393 394 396 397 398 400 401 402
- 407 409 412 413 414 417 418 419 420 423 424 425 428 429 434 436 438 440
- 441 442 446 448 449 451 453 455 456 457 459 461 462 464 465 469 470 473
- 474 476 480 481 482 486 488 489 490 491 493 494 496 497 498 499 501 502
- 505 511 512 516 517 519 520 521 525 526 528 530 533 535 545 547 548 549
- 550 554 556 557 558 559 561 563 564 566 569 571 574 576 577 578 582 588
- 589 591 593 595 596 598 601 604 605 607 610 613 615 617 618 619 620 621
- 624 625 626 628 630 632 635 636 637 639 643 644 645 646 647 648 653 657
- 662 665 666 668 669 670 672 681 682 683 684 686 687 689 690 691 692 694
- 696 697 698 700 701 704 706 707 708 709 710 711 713 715 718 719 720 727
- 729 735 736 737 739 740 742 743 745 746 749 750 751 752]</t>
+          <t>[  0   2   6   7  11  13  15  16  17  18  19  21  28  29  30  31  32  33
+  36  38  41  43  44  45  46  47  49  51  52  56  57  58  59  62  63  64
+  65  66  74  76  78  79  81  82  85  88  91  92  93  95  97  98  99 100
+ 102 103 104 106 107 110 114 115 117 118 119 121 123 124 125 127 131 132
+ 134 137 139 140 144 146 150 151 153 156 157 159 160 161 162 163 167 169
+ 170 171 180 182 183 185 187 189 190 192 196 197 200 201 206 207 208 211
+ 212 214 218 219 220 221 222 224 225 227 229 230 231 232 233 235 236 237
+ 240 244 245 246 247 248 249 250 251 254 256 258 259 260 261 264 265 266
+ 267 269 271 272 274 276 277 278 279 281 282 283 292 296 297 299 300 301
+ 303 304 305 307 311 312 314 315 317 320 321 322 324 325 328 331 333 335
+ 338 340 343 347 348 352 353 354 355 357 358 359 361 363 366 369 370 372
+ 374 375 377 379 380 381 382 385 387 389 391 392 393 395 397 398 400 404
+ 405 406 407 409 412 413 414 416 418 419 420 423 425 426 427 429 430 433
+ 434 435 437 439 440 442 443 445 446 447 449 450 451 452 454 457 460 463
+ 464 466 470 471 473 474 476 477 481 487 488 491 493 494 498 500 502 503
+ 504 505 506 513 515 517 526 527 530 531 533 534 535 536 538 539 543 544
+ 546 547 550 552 554 555 557 558 562 563 570 573 575 580 583 590 591 594
+ 595 596 598 600 602 603 605 608 609 610 611 612 613 614 615 616 617 618
+ 622 624 626 627 628 636 637 638 640 641 642 643 644 645 647 648 649 653
+ 654 656 658 659 660 661 662 663 664 666 668 669 670 671 672 673 675 678
+ 680 681 682 684 685 686 687 688 690 693 697 699 700 701 702 703 704 708
+ 709 711 712 714 715 719 721 723 727 728 729 733 736 737 738 739 743 744
+ 745 749 750 751 752]</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0.9605263157894737</v>
       </c>
       <c r="E10" t="n">
-        <v>19.81521105766296</v>
+        <v>20.73139190673828</v>
       </c>
     </row>
     <row r="11">
@@ -1030,59 +1023,60 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[1 0 1 0 1 1 0 0 1 0 0 0 0 1 1 0 1 1 0 1 0 0 1 0 1 1 1 1 0 1 0 1 0 0 0 0 1
- 0 0 0 0 0 1 1 0 1 1 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 1 0
- 0 0 0 1 1 0 1 1 0 0 1 0 0 1 1 0 1 0 0 0 1 0 1 1 0 1 0 1 0 1 0 1 1 0 1 1 0
- 1 0 0 1 0 0 0 1 1 1 0 0 1 0 0 0 0 1 1 0 0 0 0 1 1 0 1 0 0 1 1 0 1 1 0 0 1
- 1 1 1 0 1 0 0 0 1 0 0 1 0 1 1 0 1 1 1 0 1 1 0 0 1 1 1 1 0 1 0 0 0 1 0 1 1
- 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 1 1 1 1 0 1 0 1 1 0 0
- 1 1 0 0 1 1 0 0 1 1 0 1 1 0 1 0 0 1 1 1 1 1 0 0 1 1 0 0 1 1 1 1 0 1 1 1 0
- 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 0 0 1 0 1
- 0 1 0 0 0 0 1 1 1 1 0 0 1 1 0 1 0 1 1 0 1 1 0 1 1 1 1 1 0 0 0 0 1 0 0 0 1
- 1 0 0 1 1 1 0 0 1 0 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 1 1 1
- 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 1 1 1 1 0 0 0 0 0 1 0 1 0 0 1 1 1
- 1 1 1 1 0 0 1 0 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 0 0 1 0 1 0 0 1 0 1 0 0 0
- 1 1 1 0 0 0 0 0 0 1 1 1 0 1 0 0 1 1 0 0 0 1 1 1 0 1 1 0 1 0 0 1 0 1 1 0 0
- 1 1 0 0 1 1 1 1 1 1 1 1 1 0 0 1 0 0 1 1 0 1 0 1 1 0 0 0 0 1 1 0 0 0 1 0 1
- 1 1 0 0 1 0 0 1 1 0 1 1 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 1 0 0 1 1 0 1 1
- 1 1 1 1 1 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 0 1 0 1 1 0 1 0 0 1 0 0 0 1 0 0 1
- 0 0 1 1 0 1 0 1 0 1 0 1 0 0 1 1 1 1 1 0 0 0 0 1 1 1 0 1 1 1 1 1 1 1 0 0 1
- 0 1 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 1
- 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 1 1 0 1 1 0 0 0 0 1 1 1 1 1 0 0 1 0 0 1 1
- 1 0 0 1 1 1 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 1 0 1 0 1 1 0 0 0 0 1 1 0
- 0 1 0 0 0 1 0 0 1 0 0 0 1]</t>
+          <t>[1 1 0 1 0 1 0 1 0 1 0 0 1 1 1 1 1 1 0 0 0 1 0 1 0 1 1 1 1 1 0 0 1 1 0 1 1
+ 0 1 0 0 1 1 0 0 1 1 1 1 0 1 1 1 0 0 0 0 1 0 1 1 0 1 0 1 1 0 0 0 1 1 1 0 0
+ 1 1 0 1 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 1 1 0 0 1 1 0 1 0 0 0 0 0 1 0 0
+ 1 1 0 1 1 1 0 0 1 1 1 0 0 1 0 1 1 1 1 0 1 1 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0
+ 1 1 0 0 1 0 1 1 1 1 1 0 0 0 1 1 0 0 1 1 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 1 1
+ 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 0 0 1 1 0 1 1 1 0 0 1 0 0 0 1 0 1
+ 0 0 0 1 1 0 1 1 1 1 1 1 0 0 0 0 1 0 0 0 0 1 1 0 1 1 1 0 1 0 0 0 0 1 0 0 1
+ 1 0 0 1 0 1 1 0 1 1 0 1 0 1 0 1 0 1 1 1 0 1 1 1 1 0 0 1 1 1 0 0 1 1 1 1 1
+ 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 0 0 1 1 1 1 0 0 0 1 0 0 1 0 1 1 0 0 1 1
+ 1 1 1 1 1 0 1 0 0 0 1 0 0 0 0 1 0 1 1 1 0 1 1 0 0 1 0 1 1 1 1 0 1 1 1 0 1
+ 1 1 0 1 0 1 1 0 0 0 1 1 1 0 0 1 1 0 0 0 0 1 1 1 0 0 1 0 0 1 1 1 1 1 1 0 0
+ 0 1 1 1 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0
+ 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 1 1 1 0 0 1 1 0 0 0 1 0 0 0 1 1 1 1 1
+ 1 0 1 0 1 0 1 1 1 1 0 0 0 1 0 1 1 1 1 1 0 1 0 0 0 1 0 1 1 1 1 0 0 1 1 0 1
+ 1 1 1 0 0 1 0 0 1 1 1 1 1 1 0 1 0 0 1 0 1 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 1
+ 1 0 0 1 1 1 0 1 1 0 0 0 0 1 1 0 0 1 1 1 0 0 0 0 1 0 0 0 1 1 1 0 1 1 0 0 1
+ 1 0 0 0 1 0 0 0 1 1 1 1 1 0 1 0 1 0 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0
+ 1 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 1 1 0 1 1 0 1 0 1 0 0 1 1 1 1 0 0 0 1
+ 0 0 0 1 1 1 0 0 1 0 1 1 1 0 0 0 1 1 1 1 1 1 0 0 0 0 0 1 1 1 1 0 0 1 0 1 1
+ 1 0 0 0 0 0 0 0 1 1 1 0 1 1 1 0 1 1 0 0 1 1 1 0 1 1 1 1 1 0 1 1 0 1 1 1 1
+ 1 1 0 0 1 1 0 1 0 0 1 0 1]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[  0   2   4   5   8  13  14  16  17  19  22  24  25  26  27  29  31  36
-  42  43  45  46  48  49  51  52  63  67  68  71  72  77  78  80  81  84
-  87  88  90  94  96  97  99 101 103 105 106 108 109 111 114 118 119 120
- 123 128 129 134 135 137 140 141 143 144 147 148 149 150 152 156 159 161
- 162 164 165 166 168 169 172 173 174 175 177 181 183 184 188 189 204 207
- 208 210 211 212 213 214 216 218 219 222 223 226 227 230 231 233 234 236
- 239 240 241 242 243 246 247 250 251 252 253 255 256 257 262 263 266 273
- 274 275 276 277 278 279 280 281 283 284 285 287 289 293 295 297 302 303
- 304 305 308 309 311 313 314 316 317 319 320 321 322 323 328 332 333 336
- 337 338 341 344 345 349 350 354 356 358 359 363 367 368 369 372 373 377
- 379 380 387 390 391 392 393 399 401 404 405 406 407 408 409 410 413 415
- 416 417 418 419 420 423 424 425 426 427 428 429 430 433 435 438 440 444
- 445 446 453 454 455 457 460 461 465 466 467 469 470 472 475 477 478 481
- 482 485 486 487 488 489 490 491 492 493 496 499 500 502 504 505 510 511
- 515 517 518 519 522 525 526 528 529 530 531 532 535 536 538 539 540 541
- 542 543 544 545 547 550 551 553 554 555 556 557 558 559 560 561 563 567
- 568 569 571 573 576 578 579 581 584 588 591 594 595 597 599 601 603 606
- 607 608 609 610 615 616 617 619 620 621 622 623 624 625 628 630 633 635
- 641 642 648 654 658 661 662 664 665 671 676 679 680 681 682 683 685 686
- 691 692 693 694 695 698 701 702 703 706 707 708 709 710 716 720 725 726
- 727 729 731 732 737 738 741 745 748 752]</t>
+          <t>[  0   1   3   5   7   9  12  13  14  15  16  17  21  23  25  26  27  28
+  29  32  33  35  36  38  41  42  45  46  47  48  50  51  52  57  59  60
+  62  64  65  69  70  71  74  75  77  84  86  87  88  90  95  96  99 100
+ 102 108 111 112 114 115 116 119 120 121 124 126 127 128 129 131 132 134
+ 136 139 144 146 148 149 152 154 155 156 157 158 162 163 166 167 169 172
+ 175 179 180 183 184 185 186 187 188 190 192 194 196 197 200 201 202 203
+ 207 208 210 211 212 215 219 221 225 226 228 229 230 231 232 233 238 243
+ 244 246 247 248 250 255 258 259 262 264 265 267 268 270 272 274 276 277
+ 278 280 281 282 283 286 287 288 291 292 293 294 295 296 297 305 306 308
+ 311 312 315 316 317 318 322 325 327 328 331 332 333 334 335 336 337 339
+ 343 348 350 351 352 354 355 358 360 361 362 363 365 366 367 369 370 371
+ 373 375 376 380 381 382 385 386 391 392 393 396 399 400 401 402 403 404
+ 408 409 410 414 416 419 420 424 426 427 433 435 437 445 451 452 456 461
+ 462 463 464 467 468 472 476 477 478 479 480 481 483 485 487 488 489 490
+ 494 496 497 498 499 500 502 506 508 509 510 511 514 515 517 518 519 520
+ 523 526 527 528 529 530 531 533 536 538 541 542 546 548 552 554 555 558
+ 559 560 562 563 568 569 572 573 574 579 583 584 585 587 588 591 592 596
+ 600 601 602 603 604 606 608 610 611 612 613 617 625 626 629 631 637 640
+ 641 642 647 648 650 651 653 655 658 659 660 661 665 669 670 671 674 676
+ 677 678 682 683 684 685 686 687 693 694 695 696 699 701 702 703 711 712
+ 713 715 716 717 719 720 723 724 725 727 728 729 730 731 733 734 736 737
+ 738 739 740 741 744 745 747 750 752]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9736842105263158</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>18.26902365684509</v>
+        <v>18.53158640861511</v>
       </c>
     </row>
     <row r="12">
@@ -1091,60 +1085,60 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[1 0 0 0 0 1 1 0 1 0 1 1 0 0 0 1 1 1 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0
- 0 1 0 1 0 0 1 0 1 0 0 0 1 1 1 0 1 1 0 1 0 0 0 0 1 1 0 0 1 1 1 0 0 1 1 1 0
- 1 0 1 0 0 0 1 0 1 1 1 0 0 1 1 1 0 0 1 0 1 1 1 1 0 1 0 1 0 0 0 1 0 1 0 0 1
- 0 1 1 0 1 0 0 0 0 1 1 0 0 1 0 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 1 0 1 1 0 0 1
- 1 0 1 1 1 1 0 0 0 0 1 0 1 1 0 1 1 0 0 1 1 0 1 1 1 0 0 0 0 1 1 1 0 0 0 0 1
- 0 0 1 0 1 0 1 1 1 1 0 0 1 1 0 1 1 0 1 0 1 0 0 1 1 1 1 1 1 0 0 0 0 0 0 1 0
- 0 1 0 0 0 0 0 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0
- 0 1 1 0 1 0 1 1 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 1 1 0 1 0 1 1 1 1 0 0 0 0 0
- 1 1 0 1 0 0 0 0 1 1 0 1 1 1 1 1 0 0 1 0 0 1 0 0 0 0 0 1 1 1 1 1 0 1 0 0 0
- 0 1 0 1 1 0 1 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 1 1 1 1 1 1 0 0 1
- 1 0 1 1 0 0 1 1 0 1 0 0 1 0 0 0 0 0 1 1 1 1 1 0 1 0 0 0 1 1 0 1 0 1 1 0 0
- 0 0 0 1 1 0 1 0 0 0 1 1 1 0 0 1 1 0 1 1 0 1 0 1 1 1 1 0 0 1 0 0 0 0 1 1 0
- 0 1 1 1 1 1 1 1 1 1 1 1 0 1 0 1 0 1 0 1 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0
- 1 1 1 0 1 0 0 0 1 0 1 1 1 0 1 1 0 1 1 1 0 1 1 1 1 1 0 0 0 0 1 0 0 1 1 0 1
- 0 0 1 1 1 1 1 0 0 1 0 1 1 0 1 1 0 1 1 0 0 1 0 1 0 1 0 0 1 1 1 1 0 0 1 0 0
- 0 0 0 1 1 1 1 1 0 1 0 1 0 0 0 0 1 1 1 1 0 1 1 0 1 1 1 1 1 0 1 1 0 1 1 0 1
- 1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 1 0 0 0 1 1 0 1 1 1 1 0 0 1 1 1 0 1 0 1 0
- 0 0 0 1 1 0 1 1 0 1 0 1 0 1 1 1 1 0 0 0 1 1 0 1 0 1 0 1 1 0 1 0 0 0 1 1 1
- 0 0 0 1 0 0 1 0 1 1 0 0 1 1 1 1 1 1 1 1 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0
- 0 1 1 1 0 0 1 0 1 1 0 0 1 0 1 1 0 0 0 1 1 1 1 0 0 1 0 1 0 0 1 1 0 0 0 0 1
- 1 1 0 0 0 1 1 0 1 1 0 1 1]</t>
+          <t>[1 0 1 0 1 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 0 1 0 1 1 1 0 1 0 0 1 0 0 1 1 0 1
+ 1 0 0 1 0 1 0 1 1 0 0 1 0 0 0 0 0 0 1 1 0 1 1 1 1 1 0 1 1 1 1 0 0 0 1 1 0
+ 0 0 1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 1 1 1 0 0 1
+ 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 1 0 1 1 0 0 1 1 1 1 1 0 1 0 1 0 0 0 1 1 1 0
+ 1 1 1 0 1 0 1 1 0 1 1 1 0 1 0 1 0 1 1 1 1 0 1 0 1 0 0 0 0 1 1 1 0 0 1 1 1
+ 0 1 1 0 0 1 0 1 0 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 1 1 0 0 0 1 1
+ 0 1 0 0 1 0 1 1 0 0 1 0 0 1 1 1 0 1 0 0 1 0 1 0 1 0 1 0 0 1 1 0 1 0 0 0 0
+ 0 1 1 0 0 0 0 0 0 1 1 0 0 1 1 1 1 0 1 1 1 1 0 1 1 0 1 1 0 1 1 1 1 0 0 0 0
+ 1 1 1 0 1 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 1 1 1 0 0 0 1 0
+ 0 0 1 1 1 1 0 0 0 1 1 1 1 0 1 0 1 1 0 1 1 1 1 0 1 0 1 1 0 0 0 0 1 1 0 0 1
+ 1 0 0 1 0 1 1 0 1 0 1 1 1 0 1 1 0 0 1 1 0 1 0 1 0 1 1 1 0 0 1 1 0 1 1 1 1
+ 0 0 1 0 1 1 0 0 0 0 1 0 1 1 1 0 1 0 1 0 1 1 1 0 1 1 0 1 0 1 1 1 1 1 1 1 0
+ 1 1 0 1 0 1 0 0 0 1 0 1 0 1 1 1 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 1 1 1 1 0
+ 1 1 0 1 0 0 1 0 0 1 1 1 1 1 0 0 0 1 1 0 0 1 1 0 1 1 0 1 1 0 1 1 0 1 1 0 0
+ 1 0 1 0 1 1 1 0 1 1 0 1 1 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 1 0 0 1
+ 1 1 1 1 0 1 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 1 0 1 1 0 1 1 1 0 1 0 0 1 0 1
+ 1 0 0 0 0 0 0 1 1 1 1 1 0 1 1 0 0 0 1 1 1 1 0 0 0 0 1 0 0 1 0 1 1 1 0 1 0
+ 0 0 0 1 1 1 1 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 1 1 1 0 1 0 1 1
+ 0 1 1 1 1 1 0 0 1 0 1 1 0 0 1 1 1 0 1 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 1 0 1
+ 1 0 0 1 1 1 1 0 0 1 0 1 0 0 0 1 1 0 0 1 1 1 0 0 1 0 0 0 1 0 1 1 0 1 1 0 1
+ 1 0 0 0 0 1 0 0 0 0 0 0 1]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[  0   5   6   8  10  11  15  16  17  18  19  21  26  27  35  38  40  43
-  45  49  50  51  53  54  56  61  62  65  66  67  70  71  72  74  76  80
-  82  83  84  87  88  89  92  94  95  96  97  99 101 105 107 110 112 113
- 115 120 121 124 126 128 129 130 131 133 134 136 137 140 141 143 144 147
- 148 150 151 152 153 158 160 161 163 164 167 168 170 171 172 177 178 179
- 184 187 189 191 192 193 194 197 198 200 201 203 205 208 209 210 211 212
- 213 220 223 230 231 232 234 235 236 237 238 239 240 241 252 253 255 256
- 257 260 261 263 265 266 267 270 273 277 278 282 283 285 287 288 289 290
- 296 297 299 304 305 307 308 309 310 311 314 317 323 324 325 326 327 329
- 334 336 337 339 340 341 350 352 355 360 361 362 363 364 365 366 369 370
- 372 373 376 377 379 382 388 389 390 391 392 394 398 399 401 403 404 410
- 411 413 417 418 419 422 423 425 426 428 430 431 432 433 436 441 442 445
- 446 447 448 449 450 451 452 453 454 455 457 459 461 463 465 466 467 470
- 475 481 482 483 485 489 491 492 493 495 496 498 499 500 502 503 504 505
- 506 511 514 515 517 520 521 522 523 524 527 529 530 532 533 535 536 539
- 541 543 546 547 548 549 552 558 559 560 561 562 564 566 571 572 573 574
- 576 577 579 580 581 582 583 585 586 588 589 591 592 594 595 596 597 599
- 601 603 605 606 608 612 613 615 616 617 618 621 622 623 625 627 632 633
- 635 636 638 640 642 643 644 645 649 650 652 654 656 657 659 663 664 665
- 669 672 674 675 678 679 680 681 682 683 684 685 687 690 696 699 704 705
- 706 709 711 712 715 717 718 722 723 724 725 728 730 733 734 739 740 741
- 745 746 748 749 751 752]</t>
+          <t>[  0   2   4   5   6   8  14  15  16  18  21  23  24  25  27  30  33  34
+  36  37  40  42  44  45  48  55  56  58  59  60  61  62  64  65  66  67
+  71  72  76  81  85  86  88  93 101 102 104 105 106 107 110 113 117 120
+ 125 126 128 129 132 133 134 135 136 138 140 144 145 146 148 149 150 152
+ 154 155 157 158 159 161 163 165 166 167 168 170 172 177 178 179 182 183
+ 184 186 187 190 192 194 195 198 201 205 212 214 215 216 220 221 223 226
+ 228 229 232 235 236 237 239 242 244 246 248 251 252 254 260 261 268 269
+ 272 273 274 275 277 278 279 280 282 283 285 286 288 289 290 291 296 297
+ 298 300 301 302 303 305 319 320 321 324 325 326 327 331 335 336 337 338
+ 342 343 344 345 347 349 350 352 353 354 355 357 359 360 365 366 369 370
+ 373 375 376 378 380 381 382 384 385 388 389 391 393 395 396 397 400 401
+ 403 404 405 406 409 411 412 417 419 420 421 423 425 427 428 429 431 432
+ 434 436 437 438 439 440 441 442 444 445 447 449 453 455 457 458 459 463
+ 464 465 469 473 476 477 478 479 481 482 484 487 490 491 492 493 494 498
+ 499 502 503 505 506 508 509 511 512 514 515 518 520 522 523 524 526 527
+ 529 530 531 533 538 539 541 549 550 551 554 555 556 557 558 560 563 566
+ 567 571 576 577 579 580 582 583 584 586 589 591 592 599 600 601 602 603
+ 605 606 610 611 612 613 618 621 623 624 625 627 632 633 634 635 637 640
+ 644 647 648 653 656 658 659 660 662 664 665 667 668 669 670 671 674 676
+ 677 680 681 682 684 685 687 688 689 691 692 693 694 695 696 697 698 700
+ 702 703 706 707 708 709 712 714 718 719 722 723 724 727 731 733 734 736
+ 737 739 740 745 752]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E12" t="n">
-        <v>19.48405909538269</v>
+        <v>20.72175288200378</v>
       </c>
     </row>
   </sheetData>
